--- a/experiments/ana-flavia-NCxNR-trim/sheets/relative-filtered_frequencies.xlsx
+++ b/experiments/ana-flavia-NCxNR-trim/sheets/relative-filtered_frequencies.xlsx
@@ -31,31 +31,31 @@
     <t>NR</t>
   </si>
   <si>
-    <t>210421121673</t>
-  </si>
-  <si>
-    <t>210421121674</t>
-  </si>
-  <si>
-    <t>210421121675</t>
-  </si>
-  <si>
-    <t>210421121676</t>
-  </si>
-  <si>
-    <t>210421121677</t>
-  </si>
-  <si>
-    <t>210421121678</t>
-  </si>
-  <si>
-    <t>210421121679</t>
-  </si>
-  <si>
-    <t>210421121680</t>
-  </si>
-  <si>
-    <t>210421121681</t>
+    <t>S210421121673</t>
+  </si>
+  <si>
+    <t>S210421121674</t>
+  </si>
+  <si>
+    <t>S210421121675</t>
+  </si>
+  <si>
+    <t>S210421121676</t>
+  </si>
+  <si>
+    <t>S210421121677</t>
+  </si>
+  <si>
+    <t>S210421121678</t>
+  </si>
+  <si>
+    <t>S210421121679</t>
+  </si>
+  <si>
+    <t>S210421121680</t>
+  </si>
+  <si>
+    <t>S210421121681</t>
   </si>
   <si>
     <t>Bacteria</t>
@@ -154,12 +154,12 @@
     <t>Clostridia_UCG-014</t>
   </si>
   <si>
+    <t>Rhodospirillales</t>
+  </si>
+  <si>
     <t>Enterobacterales</t>
   </si>
   <si>
-    <t>Rhodospirillales</t>
-  </si>
-  <si>
     <t>Monoglobales</t>
   </si>
   <si>
@@ -304,12 +304,12 @@
     <t>Acholeplasmataceae</t>
   </si>
   <si>
+    <t>Staphylococcaceae</t>
+  </si>
+  <si>
     <t>Burkholderiaceae</t>
   </si>
   <si>
-    <t>Staphylococcaceae</t>
-  </si>
-  <si>
     <t>Eggerthellaceae</t>
   </si>
   <si>
@@ -322,12 +322,12 @@
     <t>Pseudomonadaceae</t>
   </si>
   <si>
+    <t>Defluviitaleaceae</t>
+  </si>
+  <si>
     <t>Aerococcaceae</t>
   </si>
   <si>
-    <t>Defluviitaleaceae</t>
-  </si>
-  <si>
     <t>Morganellaceae</t>
   </si>
   <si>
@@ -355,12 +355,12 @@
     <t>[Clostridium]_methylpentosum_group</t>
   </si>
   <si>
+    <t>Mitochondria</t>
+  </si>
+  <si>
     <t>Helicobacteraceae</t>
   </si>
   <si>
-    <t>Mitochondria</t>
-  </si>
-  <si>
     <t>Caulobacteraceae</t>
   </si>
   <si>
@@ -430,15 +430,15 @@
     <t>Oscillibacter</t>
   </si>
   <si>
+    <t>Colidextribacter</t>
+  </si>
+  <si>
+    <t>Lachnoclostridium</t>
+  </si>
+  <si>
     <t>Blautia</t>
   </si>
   <si>
-    <t>Colidextribacter</t>
-  </si>
-  <si>
-    <t>Lachnoclostridium</t>
-  </si>
-  <si>
     <t>Streptococcus</t>
   </si>
   <si>
@@ -478,12 +478,12 @@
     <t>Candidatus_Saccharimonas</t>
   </si>
   <si>
+    <t>Coriobacteriaceae_UCG-002</t>
+  </si>
+  <si>
     <t>GCA-900066575</t>
   </si>
   <si>
-    <t>Coriobacteriaceae_UCG-002</t>
-  </si>
-  <si>
     <t>Butyricicoccus</t>
   </si>
   <si>
@@ -505,12 +505,12 @@
     <t>UCG-004</t>
   </si>
   <si>
+    <t>[Eubacterium]_siraeum_group</t>
+  </si>
+  <si>
     <t>Lachnospiraceae_UCG-006</t>
   </si>
   <si>
-    <t>[Eubacterium]_siraeum_group</t>
-  </si>
-  <si>
     <t>Papillibacter</t>
   </si>
   <si>
@@ -526,12 +526,12 @@
     <t>Staphylococcus</t>
   </si>
   <si>
+    <t>Fournierella</t>
+  </si>
+  <si>
     <t>Mucispirillum</t>
   </si>
   <si>
-    <t>Fournierella</t>
-  </si>
-  <si>
     <t>Anaerovorax</t>
   </si>
   <si>
@@ -541,27 +541,27 @@
     <t>Holdemania</t>
   </si>
   <si>
+    <t>Pseudomonas</t>
+  </si>
+  <si>
     <t>Anaerostipes</t>
   </si>
   <si>
-    <t>Pseudomonas</t>
-  </si>
-  <si>
     <t>Acetatifactor</t>
   </si>
   <si>
+    <t>Defluviitaleaceae_UCG-011</t>
+  </si>
+  <si>
     <t>Aerococcus</t>
   </si>
   <si>
-    <t>Defluviitaleaceae_UCG-011</t>
+    <t>Faecalibaculum</t>
   </si>
   <si>
     <t>Jeotgalicoccus</t>
   </si>
   <si>
-    <t>Faecalibaculum</t>
-  </si>
-  <si>
     <t>UCG-009</t>
   </si>
   <si>
@@ -616,18 +616,18 @@
     <t>Enterococcus</t>
   </si>
   <si>
+    <t>[Eubacterium]_ventriosum_group</t>
+  </si>
+  <si>
     <t>Lachnospiraceae_NC2004_group</t>
   </si>
   <si>
-    <t>[Eubacterium]_ventriosum_group</t>
+    <t>UBA1819</t>
   </si>
   <si>
     <t>UCG-007</t>
   </si>
   <si>
-    <t>UBA1819</t>
-  </si>
-  <si>
     <t>Haemophilus</t>
   </si>
   <si>
@@ -652,13 +652,13 @@
     <t>DTU089</t>
   </si>
   <si>
+    <t>Helicobacter</t>
+  </si>
+  <si>
+    <t>Candidatus_Soleaferrea</t>
+  </si>
+  <si>
     <t>Dorea</t>
-  </si>
-  <si>
-    <t>Helicobacter</t>
-  </si>
-  <si>
-    <t>Candidatus_Soleaferrea</t>
   </si>
   <si>
     <t>Tuzzerella</t>
@@ -1244,40 +1244,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.78679</v>
+        <v>0.78717</v>
       </c>
       <c r="C2">
-        <v>0.78588</v>
+        <v>0.7864100000000001</v>
       </c>
       <c r="D2">
-        <v>0.78822</v>
+        <v>0.78838</v>
       </c>
       <c r="E2">
-        <v>0.65511</v>
+        <v>0.65639</v>
       </c>
       <c r="F2">
-        <v>0.77278</v>
+        <v>0.77367</v>
       </c>
       <c r="G2">
-        <v>0.78467</v>
+        <v>0.78424</v>
       </c>
       <c r="H2">
-        <v>0.87073</v>
+        <v>0.8708</v>
       </c>
       <c r="I2">
-        <v>0.80665</v>
+        <v>0.80696</v>
       </c>
       <c r="J2">
-        <v>0.7895</v>
+        <v>0.7900700000000001</v>
       </c>
       <c r="K2">
-        <v>0.8579</v>
+        <v>0.8577399999999999</v>
       </c>
       <c r="L2">
-        <v>0.59941</v>
+        <v>0.5990799999999999</v>
       </c>
       <c r="M2">
-        <v>0.8848</v>
+        <v>0.88511</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1285,40 +1285,40 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.15983</v>
+        <v>0.15943</v>
       </c>
       <c r="C3">
-        <v>0.15656</v>
+        <v>0.15596</v>
       </c>
       <c r="D3">
-        <v>0.16499</v>
+        <v>0.16491</v>
       </c>
       <c r="E3">
-        <v>0.31092</v>
+        <v>0.30957</v>
       </c>
       <c r="F3">
-        <v>0.18223</v>
+        <v>0.18123</v>
       </c>
       <c r="G3">
-        <v>0.05151</v>
+        <v>0.05143</v>
       </c>
       <c r="H3">
-        <v>0.10092</v>
+        <v>0.10097</v>
       </c>
       <c r="I3">
-        <v>0.04332</v>
+        <v>0.04322</v>
       </c>
       <c r="J3">
-        <v>0.20601</v>
+        <v>0.20548</v>
       </c>
       <c r="K3">
-        <v>0.1373</v>
+        <v>0.13749</v>
       </c>
       <c r="L3">
-        <v>0.38555</v>
+        <v>0.38605</v>
       </c>
       <c r="M3">
-        <v>0.10934</v>
+        <v>0.10902</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1326,28 +1326,28 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.03512</v>
+        <v>0.03518</v>
       </c>
       <c r="C4">
-        <v>0.03384</v>
+        <v>0.0339</v>
       </c>
       <c r="D4">
-        <v>0.03713</v>
+        <v>0.03719</v>
       </c>
       <c r="E4">
-        <v>0.02994</v>
+        <v>0.03001</v>
       </c>
       <c r="F4">
-        <v>0.00347</v>
+        <v>0.00345</v>
       </c>
       <c r="G4">
-        <v>0.15166</v>
+        <v>0.15214</v>
       </c>
       <c r="H4">
-        <v>0.00313</v>
+        <v>0.00311</v>
       </c>
       <c r="I4">
-        <v>0.13576</v>
+        <v>0.13587</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="M4">
         <v>4E-05</v>
@@ -1367,40 +1367,40 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.01539</v>
+        <v>0.01535</v>
       </c>
       <c r="C5">
         <v>0.02087</v>
       </c>
       <c r="D5">
-        <v>0.00674</v>
+        <v>0.00665</v>
       </c>
       <c r="E5">
-        <v>0.00342</v>
+        <v>0.00341</v>
       </c>
       <c r="F5">
-        <v>0.03972</v>
+        <v>0.03984</v>
       </c>
       <c r="G5">
-        <v>0.01212</v>
+        <v>0.0121</v>
       </c>
       <c r="H5">
-        <v>0.01884</v>
+        <v>0.01875</v>
       </c>
       <c r="I5">
-        <v>0.01421</v>
+        <v>0.01389</v>
       </c>
       <c r="J5">
-        <v>0.0027</v>
+        <v>0.00264</v>
       </c>
       <c r="K5">
-        <v>0.00469</v>
+        <v>0.00467</v>
       </c>
       <c r="L5">
-        <v>0.00419</v>
+        <v>0.0042</v>
       </c>
       <c r="M5">
-        <v>0.00302</v>
+        <v>0.00303</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1408,37 +1408,37 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.00127</v>
+        <v>0.00126</v>
       </c>
       <c r="C6">
-        <v>0.00048</v>
+        <v>0.00049</v>
       </c>
       <c r="D6">
-        <v>0.00251</v>
+        <v>0.00247</v>
       </c>
       <c r="E6">
         <v>0.00013</v>
       </c>
       <c r="F6">
-        <v>0.00099</v>
+        <v>0.00101</v>
       </c>
       <c r="G6">
-        <v>5E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="H6">
         <v>0.00046</v>
       </c>
       <c r="I6">
-        <v>5E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="J6">
-        <v>0.001</v>
+        <v>0.00099</v>
       </c>
       <c r="K6">
         <v>0.00011</v>
       </c>
       <c r="L6">
-        <v>0.009310000000000001</v>
+        <v>0.00916</v>
       </c>
       <c r="M6">
         <v>0.00236</v>
@@ -1449,16 +1449,16 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.00118</v>
+        <v>0.00119</v>
       </c>
       <c r="C7">
-        <v>0.00182</v>
+        <v>0.00183</v>
       </c>
       <c r="D7">
         <v>0.00017</v>
       </c>
       <c r="E7">
-        <v>0.00023</v>
+        <v>0.00024</v>
       </c>
       <c r="F7">
         <v>0.00052</v>
@@ -1467,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.00475</v>
+        <v>0.00474</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.00079</v>
+        <v>0.00081</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="M7">
         <v>0.00044</v>
@@ -1490,7 +1490,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C8">
         <v>0.00037</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.00096</v>
+        <v>0.00095</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0.00025</v>
       </c>
       <c r="F9">
-        <v>0.00024</v>
+        <v>0.00023</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1664,40 +1664,40 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>0.78679</v>
+        <v>0.78717</v>
       </c>
       <c r="C2">
-        <v>0.78588</v>
+        <v>0.7864100000000001</v>
       </c>
       <c r="D2">
-        <v>0.78822</v>
+        <v>0.78838</v>
       </c>
       <c r="E2">
-        <v>0.65511</v>
+        <v>0.65639</v>
       </c>
       <c r="F2">
-        <v>0.77278</v>
+        <v>0.77367</v>
       </c>
       <c r="G2">
-        <v>0.78467</v>
+        <v>0.78424</v>
       </c>
       <c r="H2">
-        <v>0.87073</v>
+        <v>0.8708</v>
       </c>
       <c r="I2">
-        <v>0.80665</v>
+        <v>0.80696</v>
       </c>
       <c r="J2">
-        <v>0.7895</v>
+        <v>0.7900700000000001</v>
       </c>
       <c r="K2">
-        <v>0.8579</v>
+        <v>0.8577399999999999</v>
       </c>
       <c r="L2">
-        <v>0.59941</v>
+        <v>0.5990799999999999</v>
       </c>
       <c r="M2">
-        <v>0.8848</v>
+        <v>0.88511</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1705,40 +1705,40 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>0.12072</v>
+        <v>0.12044</v>
       </c>
       <c r="C3">
-        <v>0.12409</v>
+        <v>0.12356</v>
       </c>
       <c r="D3">
-        <v>0.1154</v>
+        <v>0.11551</v>
       </c>
       <c r="E3">
-        <v>0.29832</v>
+        <v>0.297</v>
       </c>
       <c r="F3">
-        <v>0.12346</v>
+        <v>0.12253</v>
       </c>
       <c r="G3">
         <v>0.03845</v>
       </c>
       <c r="H3">
-        <v>0.07018000000000001</v>
+        <v>0.07031</v>
       </c>
       <c r="I3">
-        <v>0.02774</v>
+        <v>0.0276</v>
       </c>
       <c r="J3">
-        <v>0.07793</v>
+        <v>0.0781</v>
       </c>
       <c r="K3">
-        <v>0.11488</v>
+        <v>0.11515</v>
       </c>
       <c r="L3">
-        <v>0.28447</v>
+        <v>0.2851</v>
       </c>
       <c r="M3">
-        <v>0.0636</v>
+        <v>0.06358999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1746,40 +1746,40 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>0.03912</v>
+        <v>0.039</v>
       </c>
       <c r="C4">
-        <v>0.03248</v>
+        <v>0.0324</v>
       </c>
       <c r="D4">
-        <v>0.04959</v>
+        <v>0.0494</v>
       </c>
       <c r="E4">
-        <v>0.0126</v>
+        <v>0.01256</v>
       </c>
       <c r="F4">
-        <v>0.05876</v>
+        <v>0.0587</v>
       </c>
       <c r="G4">
-        <v>0.01305</v>
+        <v>0.01297</v>
       </c>
       <c r="H4">
-        <v>0.03074</v>
+        <v>0.03065</v>
       </c>
       <c r="I4">
-        <v>0.01559</v>
+        <v>0.01562</v>
       </c>
       <c r="J4">
-        <v>0.12808</v>
+        <v>0.12738</v>
       </c>
       <c r="K4">
-        <v>0.02242</v>
+        <v>0.02234</v>
       </c>
       <c r="L4">
-        <v>0.10108</v>
+        <v>0.10095</v>
       </c>
       <c r="M4">
-        <v>0.04574</v>
+        <v>0.04544</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1787,28 +1787,28 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>0.03512</v>
+        <v>0.03518</v>
       </c>
       <c r="C5">
-        <v>0.03384</v>
+        <v>0.0339</v>
       </c>
       <c r="D5">
-        <v>0.03713</v>
+        <v>0.03719</v>
       </c>
       <c r="E5">
-        <v>0.02994</v>
+        <v>0.03001</v>
       </c>
       <c r="F5">
-        <v>0.00347</v>
+        <v>0.00345</v>
       </c>
       <c r="G5">
-        <v>0.15166</v>
+        <v>0.15214</v>
       </c>
       <c r="H5">
-        <v>0.00313</v>
+        <v>0.00311</v>
       </c>
       <c r="I5">
-        <v>0.13576</v>
+        <v>0.13587</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="M5">
         <v>4E-05</v>
@@ -1828,40 +1828,40 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>0.01272</v>
+        <v>0.01269</v>
       </c>
       <c r="C6">
-        <v>0.01655</v>
+        <v>0.01656</v>
       </c>
       <c r="D6">
-        <v>0.00669</v>
+        <v>0.00659</v>
       </c>
       <c r="E6">
-        <v>0.00342</v>
+        <v>0.00341</v>
       </c>
       <c r="F6">
-        <v>0.03898</v>
+        <v>0.03909</v>
       </c>
       <c r="G6">
-        <v>0.01212</v>
+        <v>0.0121</v>
       </c>
       <c r="H6">
-        <v>0.00687</v>
+        <v>0.00684</v>
       </c>
       <c r="I6">
-        <v>0.01417</v>
+        <v>0.01386</v>
       </c>
       <c r="J6">
-        <v>0.0027</v>
+        <v>0.00264</v>
       </c>
       <c r="K6">
-        <v>0.00462</v>
+        <v>0.00459</v>
       </c>
       <c r="L6">
         <v>0.00407</v>
       </c>
       <c r="M6">
-        <v>0.00302</v>
+        <v>0.00303</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1869,10 +1869,10 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>0.00267</v>
+        <v>0.00266</v>
       </c>
       <c r="C7">
-        <v>0.00432</v>
+        <v>0.00431</v>
       </c>
       <c r="D7">
         <v>6E-05</v>
@@ -1887,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01197</v>
+        <v>0.01191</v>
       </c>
       <c r="I7">
         <v>4E-05</v>
@@ -1899,7 +1899,7 @@
         <v>6.999999999999999E-05</v>
       </c>
       <c r="L7">
-        <v>0.00012</v>
+        <v>0.00013</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1910,16 +1910,16 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>0.00118</v>
+        <v>0.00119</v>
       </c>
       <c r="C8">
-        <v>0.00182</v>
+        <v>0.00183</v>
       </c>
       <c r="D8">
         <v>0.00017</v>
       </c>
       <c r="E8">
-        <v>0.00023</v>
+        <v>0.00024</v>
       </c>
       <c r="F8">
         <v>0.00052</v>
@@ -1928,19 +1928,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.00475</v>
+        <v>0.00474</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.00079</v>
+        <v>0.00081</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="M8">
         <v>0.00044</v>
@@ -1957,7 +1957,7 @@
         <v>0.00024</v>
       </c>
       <c r="D9">
-        <v>0.00137</v>
+        <v>0.00136</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>1E-05</v>
       </c>
       <c r="H9">
-        <v>8.000000000000001E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.00614</v>
+        <v>0.00612</v>
       </c>
       <c r="M9">
         <v>0.00037</v>
@@ -1992,40 +1992,40 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>0.00059</v>
+        <v>0.00058</v>
       </c>
       <c r="C10">
-        <v>0.00024</v>
+        <v>0.00025</v>
       </c>
       <c r="D10">
-        <v>0.00114</v>
+        <v>0.00111</v>
       </c>
       <c r="E10">
         <v>0.00013</v>
       </c>
       <c r="F10">
-        <v>0.00027</v>
+        <v>0.00029</v>
       </c>
       <c r="G10">
-        <v>3E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="H10">
         <v>0.00037</v>
       </c>
       <c r="I10">
-        <v>5E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="J10">
-        <v>0.001</v>
+        <v>0.00099</v>
       </c>
       <c r="K10">
         <v>0.00011</v>
       </c>
       <c r="L10">
-        <v>0.00317</v>
+        <v>0.00305</v>
       </c>
       <c r="M10">
-        <v>0.002</v>
+        <v>0.00198</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2033,7 +2033,7 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C11">
         <v>0.00037</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.00096</v>
+        <v>0.00095</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0.00025</v>
       </c>
       <c r="F12">
-        <v>0.00024</v>
+        <v>0.00023</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2207,40 +2207,40 @@
         <v>34</v>
       </c>
       <c r="B2">
-        <v>0.78689</v>
+        <v>0.78728</v>
       </c>
       <c r="C2">
-        <v>0.78591</v>
+        <v>0.78644</v>
       </c>
       <c r="D2">
-        <v>0.78844</v>
+        <v>0.78859</v>
       </c>
       <c r="E2">
-        <v>0.65511</v>
+        <v>0.65639</v>
       </c>
       <c r="F2">
-        <v>0.77288</v>
+        <v>0.77377</v>
       </c>
       <c r="G2">
-        <v>0.78467</v>
+        <v>0.78424</v>
       </c>
       <c r="H2">
-        <v>0.87073</v>
+        <v>0.8708</v>
       </c>
       <c r="I2">
-        <v>0.80665</v>
+        <v>0.80696</v>
       </c>
       <c r="J2">
-        <v>0.7895</v>
+        <v>0.7900700000000001</v>
       </c>
       <c r="K2">
-        <v>0.8579</v>
+        <v>0.8577399999999999</v>
       </c>
       <c r="L2">
-        <v>0.6002</v>
+        <v>0.5998599999999999</v>
       </c>
       <c r="M2">
-        <v>0.8848</v>
+        <v>0.88511</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2248,40 +2248,40 @@
         <v>35</v>
       </c>
       <c r="B3">
-        <v>0.05408</v>
+        <v>0.05382</v>
       </c>
       <c r="C3">
-        <v>0.0508</v>
+        <v>0.05027</v>
       </c>
       <c r="D3">
-        <v>0.05925</v>
+        <v>0.0594</v>
       </c>
       <c r="E3">
-        <v>0.19062</v>
+        <v>0.18947</v>
       </c>
       <c r="F3">
-        <v>0.01478</v>
+        <v>0.01363</v>
       </c>
       <c r="G3">
         <v>0.02209</v>
       </c>
       <c r="H3">
-        <v>0.01799</v>
+        <v>0.01814</v>
       </c>
       <c r="I3">
-        <v>0.01592</v>
+        <v>0.01589</v>
       </c>
       <c r="J3">
-        <v>0.01733</v>
+        <v>0.01716</v>
       </c>
       <c r="K3">
-        <v>0.07889</v>
+        <v>0.07918</v>
       </c>
       <c r="L3">
-        <v>0.13927</v>
+        <v>0.13981</v>
       </c>
       <c r="M3">
-        <v>0.0183</v>
+        <v>0.01837</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2289,28 +2289,28 @@
         <v>36</v>
       </c>
       <c r="B4">
-        <v>0.03512</v>
+        <v>0.03518</v>
       </c>
       <c r="C4">
-        <v>0.03384</v>
+        <v>0.03391</v>
       </c>
       <c r="D4">
-        <v>0.03714</v>
+        <v>0.0372</v>
       </c>
       <c r="E4">
-        <v>0.02994</v>
+        <v>0.03001</v>
       </c>
       <c r="F4">
-        <v>0.00347</v>
+        <v>0.00345</v>
       </c>
       <c r="G4">
-        <v>0.15166</v>
+        <v>0.15214</v>
       </c>
       <c r="H4">
-        <v>0.00313</v>
+        <v>0.00311</v>
       </c>
       <c r="I4">
-        <v>0.13576</v>
+        <v>0.13587</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="M4">
         <v>4E-05</v>
@@ -2330,40 +2330,40 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>0.03292</v>
+        <v>0.03288</v>
       </c>
       <c r="C5">
-        <v>0.02948</v>
+        <v>0.02944</v>
       </c>
       <c r="D5">
-        <v>0.03833</v>
+        <v>0.03829</v>
       </c>
       <c r="E5">
-        <v>0.09383</v>
+        <v>0.09368</v>
       </c>
       <c r="F5">
-        <v>0.00338</v>
+        <v>0.00336</v>
       </c>
       <c r="G5">
         <v>0.01116</v>
       </c>
       <c r="H5">
-        <v>0.02509</v>
+        <v>0.02507</v>
       </c>
       <c r="I5">
-        <v>0.008070000000000001</v>
+        <v>0.007990000000000001</v>
       </c>
       <c r="J5">
-        <v>0.05735</v>
+        <v>0.0577</v>
       </c>
       <c r="K5">
-        <v>0.03056</v>
+        <v>0.03057</v>
       </c>
       <c r="L5">
-        <v>0.08029</v>
+        <v>0.08026</v>
       </c>
       <c r="M5">
-        <v>0.03785</v>
+        <v>0.03774</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2371,40 +2371,40 @@
         <v>38</v>
       </c>
       <c r="B6">
-        <v>0.03217</v>
+        <v>0.03203</v>
       </c>
       <c r="C6">
-        <v>0.02519</v>
+        <v>0.02509</v>
       </c>
       <c r="D6">
-        <v>0.04316</v>
+        <v>0.04298</v>
       </c>
       <c r="E6">
-        <v>0.01016</v>
+        <v>0.0101</v>
       </c>
       <c r="F6">
-        <v>0.04673</v>
+        <v>0.04662</v>
       </c>
       <c r="G6">
-        <v>0.00834</v>
+        <v>0.008240000000000001</v>
       </c>
       <c r="H6">
-        <v>0.02355</v>
+        <v>0.02344</v>
       </c>
       <c r="I6">
-        <v>0.0091</v>
+        <v>0.00912</v>
       </c>
       <c r="J6">
-        <v>0.12504</v>
+        <v>0.12436</v>
       </c>
       <c r="K6">
-        <v>0.01876</v>
+        <v>0.01867</v>
       </c>
       <c r="L6">
-        <v>0.08937</v>
+        <v>0.08928</v>
       </c>
       <c r="M6">
-        <v>0.04022</v>
+        <v>0.03994</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2412,10 +2412,10 @@
         <v>39</v>
       </c>
       <c r="B7">
-        <v>0.02752</v>
+        <v>0.02755</v>
       </c>
       <c r="C7">
-        <v>0.03631</v>
+        <v>0.03635</v>
       </c>
       <c r="D7">
         <v>0.01367</v>
@@ -2424,28 +2424,28 @@
         <v>0.00311</v>
       </c>
       <c r="F7">
-        <v>0.10467</v>
+        <v>0.1049</v>
       </c>
       <c r="G7">
         <v>0.00173</v>
       </c>
       <c r="H7">
-        <v>0.01353</v>
+        <v>0.01356</v>
       </c>
       <c r="I7">
-        <v>0.00137</v>
+        <v>0.00136</v>
       </c>
       <c r="J7">
-        <v>0.00174</v>
+        <v>0.00175</v>
       </c>
       <c r="K7">
-        <v>0.0038</v>
+        <v>0.00377</v>
       </c>
       <c r="L7">
-        <v>0.05362</v>
+        <v>0.05367</v>
       </c>
       <c r="M7">
-        <v>0.00451</v>
+        <v>0.00457</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2456,37 +2456,37 @@
         <v>0.009950000000000001</v>
       </c>
       <c r="C8">
-        <v>0.01432</v>
+        <v>0.01433</v>
       </c>
       <c r="D8">
-        <v>0.00307</v>
+        <v>0.00302</v>
       </c>
       <c r="E8">
-        <v>0.00075</v>
+        <v>0.00072</v>
       </c>
       <c r="F8">
-        <v>0.03762</v>
+        <v>0.03774</v>
       </c>
       <c r="G8">
-        <v>0.00509</v>
+        <v>0.0051</v>
       </c>
       <c r="H8">
-        <v>0.00655</v>
+        <v>0.00652</v>
       </c>
       <c r="I8">
-        <v>0.00587</v>
+        <v>0.00573</v>
       </c>
       <c r="J8">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="K8">
-        <v>0.0037</v>
+        <v>0.00367</v>
       </c>
       <c r="L8">
         <v>0.0008</v>
       </c>
       <c r="M8">
-        <v>0.00143</v>
+        <v>0.00144</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2494,31 +2494,31 @@
         <v>41</v>
       </c>
       <c r="B9">
-        <v>0.00346</v>
+        <v>0.00347</v>
       </c>
       <c r="C9">
-        <v>0.00326</v>
+        <v>0.00328</v>
       </c>
       <c r="D9">
         <v>0.00378</v>
       </c>
       <c r="E9">
-        <v>0.00179</v>
+        <v>0.00181</v>
       </c>
       <c r="F9">
-        <v>0.00429</v>
+        <v>0.00431</v>
       </c>
       <c r="G9">
-        <v>0.00408</v>
+        <v>0.00411</v>
       </c>
       <c r="H9">
-        <v>0.00277</v>
+        <v>0.0028</v>
       </c>
       <c r="I9">
-        <v>0.00581</v>
+        <v>0.00582</v>
       </c>
       <c r="J9">
-        <v>0.0013</v>
+        <v>0.00132</v>
       </c>
       <c r="K9">
         <v>0.00144</v>
@@ -2527,7 +2527,7 @@
         <v>0.00619</v>
       </c>
       <c r="M9">
-        <v>0.00231</v>
+        <v>0.00229</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2538,37 +2538,37 @@
         <v>0.00299</v>
       </c>
       <c r="C10">
-        <v>0.00362</v>
+        <v>0.00363</v>
       </c>
       <c r="D10">
-        <v>0.00198</v>
+        <v>0.00197</v>
       </c>
       <c r="E10">
         <v>0.00066</v>
       </c>
       <c r="F10">
-        <v>0.00641</v>
+        <v>0.00644</v>
       </c>
       <c r="G10">
         <v>0.00063</v>
       </c>
       <c r="H10">
-        <v>0.00439</v>
+        <v>0.00438</v>
       </c>
       <c r="I10">
         <v>0.00068</v>
       </c>
       <c r="J10">
-        <v>0.00133</v>
+        <v>0.00129</v>
       </c>
       <c r="K10">
-        <v>0.00124</v>
+        <v>0.00123</v>
       </c>
       <c r="L10">
-        <v>0.00517</v>
+        <v>0.00515</v>
       </c>
       <c r="M10">
-        <v>0.00155</v>
+        <v>0.00157</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2579,37 +2579,37 @@
         <v>0.00284</v>
       </c>
       <c r="C11">
-        <v>0.0044</v>
+        <v>0.00439</v>
       </c>
       <c r="D11">
         <v>0.00039</v>
       </c>
       <c r="E11">
-        <v>0.0057</v>
+        <v>0.00568</v>
       </c>
       <c r="F11">
-        <v>3E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.00963</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0005</v>
+        <v>0.00049</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.00038</v>
+        <v>0.0004</v>
       </c>
       <c r="M11">
-        <v>0.00155</v>
+        <v>0.00157</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2617,40 +2617,40 @@
         <v>44</v>
       </c>
       <c r="B12">
-        <v>0.00264</v>
+        <v>0.00263</v>
       </c>
       <c r="C12">
-        <v>0.0021</v>
+        <v>0.0043</v>
       </c>
       <c r="D12">
-        <v>0.00349</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.00247</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.00113</v>
+        <v>0.00069</v>
       </c>
       <c r="G12">
-        <v>0.00701</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.00027</v>
+        <v>0.01191</v>
       </c>
       <c r="I12">
-        <v>0.0083</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.00179</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.0006400000000000001</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.00145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2658,40 +2658,40 @@
         <v>45</v>
       </c>
       <c r="B13">
-        <v>0.00264</v>
+        <v>0.00261</v>
       </c>
       <c r="C13">
-        <v>0.00431</v>
+        <v>0.0021</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.00343</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.00248</v>
       </c>
       <c r="F13">
-        <v>0.00069</v>
+        <v>0.00113</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.00698</v>
       </c>
       <c r="H13">
-        <v>0.01197</v>
+        <v>0.00027</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.00812</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.00173</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.00063</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.00311</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.00144</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2708,31 +2708,31 @@
         <v>0.00261</v>
       </c>
       <c r="E14">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.00293</v>
+        <v>0.00295</v>
       </c>
       <c r="H14">
         <v>0.00028</v>
       </c>
       <c r="I14">
-        <v>0.00201</v>
+        <v>0.00198</v>
       </c>
       <c r="J14">
-        <v>0.00051</v>
+        <v>0.00053</v>
       </c>
       <c r="K14">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="L14">
-        <v>0.008460000000000001</v>
+        <v>0.00851</v>
       </c>
       <c r="M14">
-        <v>0.00067</v>
+        <v>0.00068</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2740,16 +2740,16 @@
         <v>47</v>
       </c>
       <c r="B15">
-        <v>0.00118</v>
+        <v>0.00119</v>
       </c>
       <c r="C15">
-        <v>0.00182</v>
+        <v>0.00183</v>
       </c>
       <c r="D15">
         <v>0.00017</v>
       </c>
       <c r="E15">
-        <v>0.00023</v>
+        <v>0.00024</v>
       </c>
       <c r="F15">
         <v>0.00052</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.00475</v>
+        <v>0.00474</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.00079</v>
+        <v>0.00081</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="M15">
         <v>0.00044</v>
@@ -2784,13 +2784,13 @@
         <v>0.0009700000000000001</v>
       </c>
       <c r="C16">
-        <v>0.00146</v>
+        <v>0.00147</v>
       </c>
       <c r="D16">
-        <v>0.0002</v>
+        <v>0.00019</v>
       </c>
       <c r="E16">
-        <v>0.00233</v>
+        <v>0.00235</v>
       </c>
       <c r="F16">
         <v>0.00022</v>
@@ -2799,22 +2799,22 @@
         <v>4E-05</v>
       </c>
       <c r="H16">
-        <v>0.00274</v>
+        <v>0.00276</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.00049</v>
+        <v>0.00047</v>
       </c>
       <c r="K16">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="L16">
-        <v>0.00034</v>
+        <v>0.00035</v>
       </c>
       <c r="M16">
-        <v>0.00032</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8.000000000000001E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.00614</v>
+        <v>0.00612</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2866,22 +2866,22 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="C18">
-        <v>0.0006400000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="D18">
-        <v>0.00054</v>
+        <v>0.00055</v>
       </c>
       <c r="E18">
-        <v>0.00179</v>
+        <v>0.0018</v>
       </c>
       <c r="F18">
         <v>0.00016</v>
       </c>
       <c r="G18">
-        <v>0.00021</v>
+        <v>0.00022</v>
       </c>
       <c r="H18">
-        <v>0.00062</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="I18">
         <v>0.00023</v>
@@ -2890,13 +2890,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.00112</v>
+        <v>0.00113</v>
       </c>
       <c r="L18">
         <v>0.00062</v>
       </c>
       <c r="M18">
-        <v>0.00031</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2904,40 +2904,40 @@
         <v>51</v>
       </c>
       <c r="B19">
-        <v>0.00059</v>
+        <v>0.00058</v>
       </c>
       <c r="C19">
-        <v>0.00024</v>
+        <v>0.00025</v>
       </c>
       <c r="D19">
-        <v>0.00114</v>
+        <v>0.00111</v>
       </c>
       <c r="E19">
         <v>0.00013</v>
       </c>
       <c r="F19">
-        <v>0.00027</v>
+        <v>0.00029</v>
       </c>
       <c r="G19">
-        <v>3E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="H19">
         <v>0.00037</v>
       </c>
       <c r="I19">
-        <v>5E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="J19">
-        <v>0.001</v>
+        <v>0.00099</v>
       </c>
       <c r="K19">
         <v>0.00011</v>
       </c>
       <c r="L19">
-        <v>0.00317</v>
+        <v>0.00305</v>
       </c>
       <c r="M19">
-        <v>0.002</v>
+        <v>0.00198</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2945,7 +2945,7 @@
         <v>52</v>
       </c>
       <c r="B20">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C20">
         <v>0.00037</v>
@@ -2963,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.00096</v>
+        <v>0.00095</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>0.00027</v>
       </c>
       <c r="L22">
-        <v>0.00049</v>
+        <v>0.00047</v>
       </c>
       <c r="M22">
-        <v>0.00166</v>
+        <v>0.00164</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3083,10 +3083,10 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="G23">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="H23">
-        <v>0.0003</v>
+        <v>0.00031</v>
       </c>
       <c r="I23">
         <v>0.00014</v>
@@ -3101,7 +3101,7 @@
         <v>0.00026</v>
       </c>
       <c r="M23">
-        <v>8.000000000000001E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -3121,7 +3121,7 @@
         <v>0.00025</v>
       </c>
       <c r="F24">
-        <v>0.00024</v>
+        <v>0.00023</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0.0001</v>
       </c>
       <c r="F25">
-        <v>0.00018</v>
+        <v>0.00019</v>
       </c>
       <c r="G25">
         <v>2E-05</v>
@@ -3177,13 +3177,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.00028</v>
+        <v>0.00029</v>
       </c>
       <c r="L25">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="M25">
-        <v>0.00014</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>0.00072</v>
+        <v>0.00073</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0.00028</v>
+        <v>0.00029</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>6.999999999999999E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -3652,40 +3652,40 @@
         <v>68</v>
       </c>
       <c r="B2">
-        <v>0.45085</v>
+        <v>0.45199</v>
       </c>
       <c r="C2">
-        <v>0.43739</v>
+        <v>0.4386</v>
       </c>
       <c r="D2">
-        <v>0.47197</v>
+        <v>0.47303</v>
       </c>
       <c r="E2">
-        <v>0.41265</v>
+        <v>0.4142</v>
       </c>
       <c r="F2">
-        <v>0.2818</v>
+        <v>0.28304</v>
       </c>
       <c r="G2">
-        <v>0.47756</v>
+        <v>0.47787</v>
       </c>
       <c r="H2">
-        <v>0.56595</v>
+        <v>0.56698</v>
       </c>
       <c r="I2">
-        <v>0.49685</v>
+        <v>0.49775</v>
       </c>
       <c r="J2">
-        <v>0.43618</v>
+        <v>0.43762</v>
       </c>
       <c r="K2">
-        <v>0.39544</v>
+        <v>0.39691</v>
       </c>
       <c r="L2">
-        <v>0.52984</v>
+        <v>0.5296</v>
       </c>
       <c r="M2">
-        <v>0.49505</v>
+        <v>0.49723</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3693,40 +3693,40 @@
         <v>69</v>
       </c>
       <c r="B3">
-        <v>0.17903</v>
+        <v>0.17852</v>
       </c>
       <c r="C3">
-        <v>0.17415</v>
+        <v>0.1738</v>
       </c>
       <c r="D3">
-        <v>0.18668</v>
+        <v>0.18594</v>
       </c>
       <c r="E3">
-        <v>0.11413</v>
+        <v>0.11401</v>
       </c>
       <c r="F3">
-        <v>0.38908</v>
+        <v>0.38863</v>
       </c>
       <c r="G3">
-        <v>0.06708</v>
+        <v>0.06687</v>
       </c>
       <c r="H3">
-        <v>0.0759</v>
+        <v>0.07578</v>
       </c>
       <c r="I3">
-        <v>0.07056</v>
+        <v>0.07038</v>
       </c>
       <c r="J3">
-        <v>0.24019</v>
+        <v>0.23999</v>
       </c>
       <c r="K3">
-        <v>0.34207</v>
+        <v>0.34048</v>
       </c>
       <c r="L3">
-        <v>0.03772</v>
+        <v>0.03762</v>
       </c>
       <c r="M3">
-        <v>0.2918</v>
+        <v>0.29017</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3734,40 +3734,40 @@
         <v>70</v>
       </c>
       <c r="B4">
-        <v>0.12094</v>
+        <v>0.12066</v>
       </c>
       <c r="C4">
-        <v>0.12707</v>
+        <v>0.12674</v>
       </c>
       <c r="D4">
-        <v>0.1113</v>
+        <v>0.11111</v>
       </c>
       <c r="E4">
-        <v>0.09574000000000001</v>
+        <v>0.09556000000000001</v>
       </c>
       <c r="F4">
-        <v>0.00469</v>
+        <v>0.00466</v>
       </c>
       <c r="G4">
-        <v>0.21729</v>
+        <v>0.21666</v>
       </c>
       <c r="H4">
-        <v>0.20522</v>
+        <v>0.20442</v>
       </c>
       <c r="I4">
-        <v>0.21409</v>
+        <v>0.21362</v>
       </c>
       <c r="J4">
-        <v>0.10861</v>
+        <v>0.10797</v>
       </c>
       <c r="K4">
-        <v>0.08115</v>
+        <v>0.08109</v>
       </c>
       <c r="L4">
-        <v>0.03111</v>
+        <v>0.03112</v>
       </c>
       <c r="M4">
-        <v>0.09446</v>
+        <v>0.09418</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3775,40 +3775,40 @@
         <v>71</v>
       </c>
       <c r="B5">
-        <v>0.05415</v>
+        <v>0.05388</v>
       </c>
       <c r="C5">
-        <v>0.05096</v>
+        <v>0.05043</v>
       </c>
       <c r="D5">
-        <v>0.05915</v>
+        <v>0.05931</v>
       </c>
       <c r="E5">
-        <v>0.19063</v>
+        <v>0.18947</v>
       </c>
       <c r="F5">
-        <v>0.01474</v>
+        <v>0.01359</v>
       </c>
       <c r="G5">
         <v>0.02209</v>
       </c>
       <c r="H5">
-        <v>0.01807</v>
+        <v>0.01822</v>
       </c>
       <c r="I5">
-        <v>0.01592</v>
+        <v>0.01589</v>
       </c>
       <c r="J5">
-        <v>0.01683</v>
+        <v>0.01665</v>
       </c>
       <c r="K5">
-        <v>0.07889</v>
+        <v>0.07919</v>
       </c>
       <c r="L5">
-        <v>0.13936</v>
+        <v>0.13991</v>
       </c>
       <c r="M5">
-        <v>0.01791</v>
+        <v>0.01799</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3816,28 +3816,28 @@
         <v>72</v>
       </c>
       <c r="B6">
-        <v>0.03522</v>
+        <v>0.03528</v>
       </c>
       <c r="C6">
-        <v>0.03398</v>
+        <v>0.03405</v>
       </c>
       <c r="D6">
-        <v>0.03716</v>
+        <v>0.03721</v>
       </c>
       <c r="E6">
-        <v>0.02994</v>
+        <v>0.03001</v>
       </c>
       <c r="F6">
-        <v>0.00347</v>
+        <v>0.00345</v>
       </c>
       <c r="G6">
-        <v>0.15167</v>
+        <v>0.15214</v>
       </c>
       <c r="H6">
-        <v>0.00317</v>
+        <v>0.00315</v>
       </c>
       <c r="I6">
-        <v>0.13576</v>
+        <v>0.13587</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="M6">
         <v>4E-05</v>
@@ -3857,40 +3857,40 @@
         <v>73</v>
       </c>
       <c r="B7">
-        <v>0.03134</v>
+        <v>0.03121</v>
       </c>
       <c r="C7">
-        <v>0.02462</v>
+        <v>0.02453</v>
       </c>
       <c r="D7">
-        <v>0.04188</v>
+        <v>0.04172</v>
       </c>
       <c r="E7">
-        <v>0.00974</v>
+        <v>0.009690000000000001</v>
       </c>
       <c r="F7">
-        <v>0.0454</v>
+        <v>0.04532</v>
       </c>
       <c r="G7">
-        <v>0.00735</v>
+        <v>0.00725</v>
       </c>
       <c r="H7">
-        <v>0.02375</v>
+        <v>0.02364</v>
       </c>
       <c r="I7">
-        <v>0.008449999999999999</v>
+        <v>0.00847</v>
       </c>
       <c r="J7">
-        <v>0.12295</v>
+        <v>0.12229</v>
       </c>
       <c r="K7">
-        <v>0.01829</v>
+        <v>0.01822</v>
       </c>
       <c r="L7">
-        <v>0.0876</v>
+        <v>0.08749</v>
       </c>
       <c r="M7">
-        <v>0.03774</v>
+        <v>0.03751</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3898,40 +3898,40 @@
         <v>74</v>
       </c>
       <c r="B8">
-        <v>0.02721</v>
+        <v>0.02724</v>
       </c>
       <c r="C8">
-        <v>0.03605</v>
+        <v>0.0361</v>
       </c>
       <c r="D8">
-        <v>0.01333</v>
+        <v>0.01332</v>
       </c>
       <c r="E8">
         <v>0.00249</v>
       </c>
       <c r="F8">
-        <v>0.10474</v>
+        <v>0.10497</v>
       </c>
       <c r="G8">
-        <v>0.00128</v>
+        <v>0.00127</v>
       </c>
       <c r="H8">
-        <v>0.01305</v>
+        <v>0.01309</v>
       </c>
       <c r="I8">
-        <v>0.00112</v>
+        <v>0.00111</v>
       </c>
       <c r="J8">
-        <v>0.00174</v>
+        <v>0.00175</v>
       </c>
       <c r="K8">
-        <v>0.00321</v>
+        <v>0.00315</v>
       </c>
       <c r="L8">
-        <v>0.05324</v>
+        <v>0.05329</v>
       </c>
       <c r="M8">
-        <v>0.00438</v>
+        <v>0.00443</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3939,40 +3939,40 @@
         <v>75</v>
       </c>
       <c r="B9">
-        <v>0.02404</v>
+        <v>0.02407</v>
       </c>
       <c r="C9">
-        <v>0.02976</v>
+        <v>0.0298</v>
       </c>
       <c r="D9">
-        <v>0.01505</v>
+        <v>0.01508</v>
       </c>
       <c r="E9">
-        <v>0.00658</v>
+        <v>0.00661</v>
       </c>
       <c r="F9">
-        <v>0.0738</v>
+        <v>0.07391</v>
       </c>
       <c r="G9">
-        <v>0.02276</v>
+        <v>0.02287</v>
       </c>
       <c r="H9">
-        <v>0.008229999999999999</v>
+        <v>0.008240000000000001</v>
       </c>
       <c r="I9">
-        <v>0.02516</v>
+        <v>0.0252</v>
       </c>
       <c r="J9">
-        <v>0.00203</v>
+        <v>0.00202</v>
       </c>
       <c r="K9">
-        <v>0.02752</v>
+        <v>0.02755</v>
       </c>
       <c r="L9">
-        <v>0.00168</v>
+        <v>0.00166</v>
       </c>
       <c r="M9">
-        <v>0.0023</v>
+        <v>0.00232</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3980,40 +3980,40 @@
         <v>76</v>
       </c>
       <c r="B10">
-        <v>0.01718</v>
+        <v>0.01716</v>
       </c>
       <c r="C10">
-        <v>0.01536</v>
+        <v>0.01534</v>
       </c>
       <c r="D10">
         <v>0.02003</v>
       </c>
       <c r="E10">
-        <v>0.05772</v>
+        <v>0.05766</v>
       </c>
       <c r="F10">
-        <v>0.0028</v>
+        <v>0.00279</v>
       </c>
       <c r="G10">
-        <v>0.008460000000000001</v>
+        <v>0.008449999999999999</v>
       </c>
       <c r="H10">
-        <v>0.0058</v>
+        <v>0.00581</v>
       </c>
       <c r="I10">
         <v>0.00614</v>
       </c>
       <c r="J10">
-        <v>0.00979</v>
+        <v>0.009860000000000001</v>
       </c>
       <c r="K10">
-        <v>0.0277</v>
+        <v>0.02771</v>
       </c>
       <c r="L10">
-        <v>0.04374</v>
+        <v>0.04376</v>
       </c>
       <c r="M10">
-        <v>0.00572</v>
+        <v>0.00575</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4021,16 +4021,16 @@
         <v>77</v>
       </c>
       <c r="B11">
-        <v>0.01423</v>
+        <v>0.01421</v>
       </c>
       <c r="C11">
-        <v>0.02094</v>
+        <v>0.02092</v>
       </c>
       <c r="D11">
-        <v>0.00368</v>
+        <v>0.00367</v>
       </c>
       <c r="E11">
-        <v>0.02603</v>
+        <v>0.02604</v>
       </c>
       <c r="F11">
         <v>0.02406</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02597</v>
+        <v>0.02588</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -4048,13 +4048,13 @@
         <v>0.00292</v>
       </c>
       <c r="K11">
-        <v>0.01177</v>
+        <v>0.01175</v>
       </c>
       <c r="L11">
         <v>0.00045</v>
       </c>
       <c r="M11">
-        <v>0.00142</v>
+        <v>0.00143</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4062,37 +4062,37 @@
         <v>78</v>
       </c>
       <c r="B12">
-        <v>0.009769999999999999</v>
+        <v>0.00978</v>
       </c>
       <c r="C12">
-        <v>0.01419</v>
+        <v>0.0142</v>
       </c>
       <c r="D12">
-        <v>0.00284</v>
+        <v>0.00283</v>
       </c>
       <c r="E12">
-        <v>0.00063</v>
+        <v>0.00062</v>
       </c>
       <c r="F12">
-        <v>0.03726</v>
+        <v>0.03738</v>
       </c>
       <c r="G12">
-        <v>0.00495</v>
+        <v>0.00497</v>
       </c>
       <c r="H12">
-        <v>0.00653</v>
+        <v>0.0065</v>
       </c>
       <c r="I12">
         <v>0.0057</v>
       </c>
       <c r="J12">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="K12">
-        <v>0.00351</v>
+        <v>0.00348</v>
       </c>
       <c r="L12">
-        <v>0.00027</v>
+        <v>0.00026</v>
       </c>
       <c r="M12">
         <v>0.0013</v>
@@ -4103,13 +4103,13 @@
         <v>79</v>
       </c>
       <c r="B13">
-        <v>0.008189999999999999</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="C13">
-        <v>0.00557</v>
+        <v>0.00559</v>
       </c>
       <c r="D13">
-        <v>0.01231</v>
+        <v>0.0123</v>
       </c>
       <c r="E13">
         <v>0.0134</v>
@@ -4118,25 +4118,25 @@
         <v>0.00013</v>
       </c>
       <c r="G13">
-        <v>0.0027</v>
+        <v>0.00271</v>
       </c>
       <c r="H13">
-        <v>0.00732</v>
+        <v>0.00735</v>
       </c>
       <c r="I13">
-        <v>0.00192</v>
+        <v>0.00184</v>
       </c>
       <c r="J13">
-        <v>0.02761</v>
+        <v>0.02784</v>
       </c>
       <c r="K13">
         <v>0.00227</v>
       </c>
       <c r="L13">
-        <v>0.01924</v>
+        <v>0.01928</v>
       </c>
       <c r="M13">
-        <v>0.0287</v>
+        <v>0.02864</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4144,40 +4144,40 @@
         <v>80</v>
       </c>
       <c r="B14">
-        <v>0.00636</v>
+        <v>0.00634</v>
       </c>
       <c r="C14">
-        <v>0.00689</v>
+        <v>0.00688</v>
       </c>
       <c r="D14">
-        <v>0.00552</v>
+        <v>0.00549</v>
       </c>
       <c r="E14">
-        <v>0.02105</v>
+        <v>0.02098</v>
       </c>
       <c r="F14">
-        <v>0.00046</v>
+        <v>0.00045</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.00796</v>
+        <v>0.00795</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01959</v>
+        <v>0.01964</v>
       </c>
       <c r="K14">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="L14">
-        <v>0.01644</v>
+        <v>0.01634</v>
       </c>
       <c r="M14">
-        <v>0.0028</v>
+        <v>0.00276</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4185,40 +4185,40 @@
         <v>41</v>
       </c>
       <c r="B15">
-        <v>0.00347</v>
+        <v>0.00348</v>
       </c>
       <c r="C15">
-        <v>0.00327</v>
+        <v>0.00329</v>
       </c>
       <c r="D15">
         <v>0.00378</v>
       </c>
       <c r="E15">
-        <v>0.00179</v>
+        <v>0.00181</v>
       </c>
       <c r="F15">
-        <v>0.0043</v>
+        <v>0.00431</v>
       </c>
       <c r="G15">
-        <v>0.00408</v>
+        <v>0.00411</v>
       </c>
       <c r="H15">
-        <v>0.0028</v>
+        <v>0.00284</v>
       </c>
       <c r="I15">
-        <v>0.00581</v>
+        <v>0.00582</v>
       </c>
       <c r="J15">
-        <v>0.0013</v>
+        <v>0.00132</v>
       </c>
       <c r="K15">
         <v>0.00144</v>
       </c>
       <c r="L15">
-        <v>0.00619</v>
+        <v>0.0062</v>
       </c>
       <c r="M15">
-        <v>0.00231</v>
+        <v>0.00229</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4229,37 +4229,37 @@
         <v>0.00285</v>
       </c>
       <c r="C16">
-        <v>0.00442</v>
+        <v>0.00441</v>
       </c>
       <c r="D16">
         <v>0.00039</v>
       </c>
       <c r="E16">
-        <v>0.0057</v>
+        <v>0.00568</v>
       </c>
       <c r="F16">
-        <v>3E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.00974</v>
+        <v>0.00971</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0005</v>
+        <v>0.00049</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.00038</v>
+        <v>0.0004</v>
       </c>
       <c r="M16">
-        <v>0.00155</v>
+        <v>0.00157</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -4267,40 +4267,40 @@
         <v>81</v>
       </c>
       <c r="B17">
-        <v>0.00261</v>
+        <v>0.00259</v>
       </c>
       <c r="C17">
         <v>0.00207</v>
       </c>
       <c r="D17">
-        <v>0.00345</v>
+        <v>0.0034</v>
       </c>
       <c r="E17">
-        <v>0.00247</v>
+        <v>0.00248</v>
       </c>
       <c r="F17">
         <v>0.00113</v>
       </c>
       <c r="G17">
-        <v>0.0068</v>
+        <v>0.00677</v>
       </c>
       <c r="H17">
         <v>0.00027</v>
       </c>
       <c r="I17">
-        <v>0.008189999999999999</v>
+        <v>0.00801</v>
       </c>
       <c r="J17">
-        <v>0.00179</v>
+        <v>0.00173</v>
       </c>
       <c r="K17">
-        <v>0.0006400000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="L17">
-        <v>0.0031</v>
+        <v>0.00312</v>
       </c>
       <c r="M17">
-        <v>0.00145</v>
+        <v>0.00144</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -4308,10 +4308,10 @@
         <v>82</v>
       </c>
       <c r="B18">
-        <v>0.00249</v>
+        <v>0.0025</v>
       </c>
       <c r="C18">
-        <v>0.00295</v>
+        <v>0.00296</v>
       </c>
       <c r="D18">
         <v>0.00177</v>
@@ -4320,28 +4320,28 @@
         <v>5E-05</v>
       </c>
       <c r="F18">
-        <v>0.00529</v>
+        <v>0.00532</v>
       </c>
       <c r="G18">
-        <v>0.00041</v>
+        <v>0.0004</v>
       </c>
       <c r="H18">
-        <v>0.00386</v>
+        <v>0.00385</v>
       </c>
       <c r="I18">
         <v>0.00054</v>
       </c>
       <c r="J18">
-        <v>0.00126</v>
+        <v>0.00129</v>
       </c>
       <c r="K18">
-        <v>0.0009</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="L18">
-        <v>0.00504</v>
+        <v>0.00501</v>
       </c>
       <c r="M18">
-        <v>0.00126</v>
+        <v>0.00128</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -4358,31 +4358,31 @@
         <v>0.00261</v>
       </c>
       <c r="E19">
-        <v>0.00091</v>
+        <v>0.0009</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00293</v>
+        <v>0.00295</v>
       </c>
       <c r="H19">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="I19">
-        <v>0.00201</v>
+        <v>0.00198</v>
       </c>
       <c r="J19">
-        <v>0.00051</v>
+        <v>0.00053</v>
       </c>
       <c r="K19">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="L19">
-        <v>0.00847</v>
+        <v>0.00852</v>
       </c>
       <c r="M19">
-        <v>0.00067</v>
+        <v>0.00068</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -4393,13 +4393,13 @@
         <v>0.00119</v>
       </c>
       <c r="C20">
-        <v>0.00183</v>
+        <v>0.00184</v>
       </c>
       <c r="D20">
         <v>0.00017</v>
       </c>
       <c r="E20">
-        <v>0.00023</v>
+        <v>0.00024</v>
       </c>
       <c r="F20">
         <v>0.00052</v>
@@ -4414,13 +4414,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.00079</v>
+        <v>0.00082</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
       <c r="M20">
         <v>0.00044</v>
@@ -4434,13 +4434,13 @@
         <v>0.0009700000000000001</v>
       </c>
       <c r="C21">
-        <v>0.00147</v>
+        <v>0.00148</v>
       </c>
       <c r="D21">
-        <v>0.0002</v>
+        <v>0.00019</v>
       </c>
       <c r="E21">
-        <v>0.00233</v>
+        <v>0.00235</v>
       </c>
       <c r="F21">
         <v>0.00022</v>
@@ -4449,22 +4449,22 @@
         <v>4E-05</v>
       </c>
       <c r="H21">
-        <v>0.00278</v>
+        <v>0.00279</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.00049</v>
+        <v>0.00047</v>
       </c>
       <c r="K21">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="L21">
-        <v>0.00034</v>
+        <v>0.00035</v>
       </c>
       <c r="M21">
-        <v>0.00032</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -4475,7 +4475,7 @@
         <v>0.00094</v>
       </c>
       <c r="C22">
-        <v>0.00144</v>
+        <v>0.00143</v>
       </c>
       <c r="D22">
         <v>0.00017</v>
@@ -4490,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.00423</v>
+        <v>0.00418</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4502,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.00041</v>
+        <v>0.00042</v>
       </c>
       <c r="M22">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -4513,22 +4513,22 @@
         <v>85</v>
       </c>
       <c r="B23">
-        <v>0.00082</v>
+        <v>0.00081</v>
       </c>
       <c r="C23">
-        <v>0.00059</v>
+        <v>0.00058</v>
       </c>
       <c r="D23">
         <v>0.00117</v>
       </c>
       <c r="E23">
-        <v>0.00042</v>
+        <v>0.00041</v>
       </c>
       <c r="F23">
-        <v>0.00136</v>
+        <v>0.00134</v>
       </c>
       <c r="G23">
-        <v>0.00052</v>
+        <v>0.00053</v>
       </c>
       <c r="H23">
         <v>5E-05</v>
@@ -4537,16 +4537,16 @@
         <v>0.00041</v>
       </c>
       <c r="J23">
-        <v>0.00216</v>
+        <v>0.00213</v>
       </c>
       <c r="K23">
-        <v>0.00038</v>
+        <v>0.00036</v>
       </c>
       <c r="L23">
-        <v>0.00186</v>
+        <v>0.00188</v>
       </c>
       <c r="M23">
-        <v>0.00232</v>
+        <v>0.00229</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8.000000000000001E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.00615</v>
+        <v>0.00613</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -4601,19 +4601,19 @@
         <v>0.0006400000000000001</v>
       </c>
       <c r="D25">
-        <v>0.00054</v>
+        <v>0.00055</v>
       </c>
       <c r="E25">
-        <v>0.00179</v>
+        <v>0.0018</v>
       </c>
       <c r="F25">
         <v>0.00016</v>
       </c>
       <c r="G25">
-        <v>0.00021</v>
+        <v>0.00022</v>
       </c>
       <c r="H25">
-        <v>0.00063</v>
+        <v>0.00061</v>
       </c>
       <c r="I25">
         <v>0.00023</v>
@@ -4622,13 +4622,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.00112</v>
+        <v>0.00113</v>
       </c>
       <c r="L25">
         <v>0.00062</v>
       </c>
       <c r="M25">
-        <v>0.00031</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -4645,7 +4645,7 @@
         <v>0.00021</v>
       </c>
       <c r="E26">
-        <v>0.0005999999999999999</v>
+        <v>0.00061</v>
       </c>
       <c r="F26">
         <v>0.00112</v>
@@ -4654,16 +4654,16 @@
         <v>0.00022</v>
       </c>
       <c r="H26">
-        <v>0.00059</v>
+        <v>0.00058</v>
       </c>
       <c r="I26">
         <v>0.00014</v>
       </c>
       <c r="J26">
-        <v>6.999999999999999E-05</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>0.00034</v>
+        <v>0.00035</v>
       </c>
       <c r="L26">
         <v>0.00014</v>
@@ -4680,10 +4680,10 @@
         <v>0.00039</v>
       </c>
       <c r="C27">
-        <v>0.00042</v>
+        <v>0.00041</v>
       </c>
       <c r="D27">
-        <v>0.00034</v>
+        <v>0.00035</v>
       </c>
       <c r="E27">
         <v>0.00062</v>
@@ -4695,19 +4695,19 @@
         <v>0.00045</v>
       </c>
       <c r="H27">
-        <v>0.00065</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="I27">
-        <v>0.00026</v>
+        <v>0.00025</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0.00059</v>
+        <v>0.00061</v>
       </c>
       <c r="L27">
-        <v>0.00044</v>
+        <v>0.00043</v>
       </c>
       <c r="M27">
         <v>0.00014</v>
@@ -4718,7 +4718,7 @@
         <v>90</v>
       </c>
       <c r="B28">
-        <v>0.00033</v>
+        <v>0.00032</v>
       </c>
       <c r="C28">
         <v>0.00033</v>
@@ -4727,7 +4727,7 @@
         <v>0.00031</v>
       </c>
       <c r="E28">
-        <v>0.00159</v>
+        <v>0.00157</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4751,7 +4751,7 @@
         <v>0.00054</v>
       </c>
       <c r="M28">
-        <v>0.00035</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -4759,7 +4759,7 @@
         <v>91</v>
       </c>
       <c r="B29">
-        <v>0.00031</v>
+        <v>0.0003</v>
       </c>
       <c r="C29">
         <v>0.00037</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.00106</v>
+        <v>0.00105</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.0009700000000000001</v>
+        <v>0.00095</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -4800,13 +4800,13 @@
         <v>92</v>
       </c>
       <c r="B30">
-        <v>0.0003</v>
+        <v>0.00029</v>
       </c>
       <c r="C30">
         <v>5E-05</v>
       </c>
       <c r="D30">
-        <v>0.00068</v>
+        <v>0.00067</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.00046</v>
+        <v>0.00043</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0.0016</v>
       </c>
       <c r="M30">
-        <v>0.00175</v>
+        <v>0.00173</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -4844,7 +4844,7 @@
         <v>0.00024</v>
       </c>
       <c r="C31">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4882,40 +4882,40 @@
         <v>94</v>
       </c>
       <c r="B32">
-        <v>0.0002</v>
+        <v>0.00019</v>
       </c>
       <c r="C32">
-        <v>0.00019</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.0002</v>
+        <v>0.00049</v>
       </c>
       <c r="E32">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.00038</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>0.00042</v>
       </c>
       <c r="K32">
-        <v>0.00011</v>
+        <v>0.00027</v>
       </c>
       <c r="L32">
-        <v>0.00054</v>
+        <v>0.00047</v>
       </c>
       <c r="M32">
-        <v>0.00013</v>
+        <v>0.00164</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -4923,40 +4923,40 @@
         <v>95</v>
       </c>
       <c r="B33">
+        <v>0.00018</v>
+      </c>
+      <c r="C33">
         <v>0.00019</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
       <c r="D33">
-        <v>0.00049</v>
+        <v>0.00017</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>0.00038</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>0.00013</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.00041</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0.00027</v>
+        <v>0.00011</v>
       </c>
       <c r="L33">
-        <v>0.00049</v>
+        <v>0.00054</v>
       </c>
       <c r="M33">
-        <v>0.00166</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -4964,28 +4964,28 @@
         <v>96</v>
       </c>
       <c r="B34">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="C34">
-        <v>0.00017</v>
+        <v>0.00019</v>
       </c>
       <c r="D34">
-        <v>0.00015</v>
+        <v>0.00013</v>
       </c>
       <c r="E34">
-        <v>9.000000000000001E-05</v>
+        <v>0.0001</v>
       </c>
       <c r="F34">
-        <v>0.00019</v>
+        <v>0.00021</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="H34">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="I34">
-        <v>5E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4994,7 +4994,7 @@
         <v>6E-05</v>
       </c>
       <c r="L34">
-        <v>0.00058</v>
+        <v>0.00046</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -5020,10 +5020,10 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="G35">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="H35">
-        <v>0.0003</v>
+        <v>0.00031</v>
       </c>
       <c r="I35">
         <v>0.00014</v>
@@ -5038,7 +5038,7 @@
         <v>0.00026</v>
       </c>
       <c r="M35">
-        <v>8.000000000000001E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -5049,7 +5049,7 @@
         <v>0.00011</v>
       </c>
       <c r="C36">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
       <c r="D36">
         <v>2E-05</v>
@@ -5058,7 +5058,7 @@
         <v>0.00025</v>
       </c>
       <c r="F36">
-        <v>0.00024</v>
+        <v>0.00023</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -5114,13 +5114,13 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0.00028</v>
+        <v>0.00029</v>
       </c>
       <c r="L37">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="M37">
-        <v>0.00014</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -5140,28 +5140,28 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="G38">
-        <v>0.00031</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>3E-05</v>
+        <v>0.00013</v>
       </c>
       <c r="I38">
-        <v>0.00024</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>0.00052</v>
       </c>
       <c r="K38">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="M38">
-        <v>0.00016</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -5181,28 +5181,28 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="H39">
-        <v>0.00014</v>
+        <v>3E-05</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>0.00025</v>
       </c>
       <c r="J39">
-        <v>0.00051</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="L39">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0.00039</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0.00072</v>
+        <v>0.00073</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>102</v>
       </c>
       <c r="B41">
-        <v>3E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="C41">
         <v>4E-05</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.00021</v>
+        <v>0.00022</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0.00028</v>
+        <v>0.00029</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.00016</v>
+        <v>0.00015</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5623,16 +5623,16 @@
         <v>1E-05</v>
       </c>
       <c r="C50">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>4E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -5664,17 +5664,17 @@
         <v>1E-05</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D51">
+        <v>1E-05</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>2E-05</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
       <c r="G51">
         <v>0</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="L51">
-        <v>6.999999999999999E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -5917,40 +5917,40 @@
         <v>68</v>
       </c>
       <c r="B2">
-        <v>0.44438</v>
+        <v>0.44548</v>
       </c>
       <c r="C2">
-        <v>0.43084</v>
+        <v>0.43203</v>
       </c>
       <c r="D2">
-        <v>0.46572</v>
+        <v>0.46672</v>
       </c>
       <c r="E2">
-        <v>0.41154</v>
+        <v>0.4131</v>
       </c>
       <c r="F2">
-        <v>0.28155</v>
+        <v>0.28279</v>
       </c>
       <c r="G2">
-        <v>0.46532</v>
+        <v>0.46566</v>
       </c>
       <c r="H2">
-        <v>0.5538999999999999</v>
+        <v>0.55488</v>
       </c>
       <c r="I2">
-        <v>0.48505</v>
+        <v>0.48587</v>
       </c>
       <c r="J2">
-        <v>0.43203</v>
+        <v>0.43343</v>
       </c>
       <c r="K2">
-        <v>0.38292</v>
+        <v>0.38436</v>
       </c>
       <c r="L2">
-        <v>0.5436299999999999</v>
+        <v>0.5432399999999999</v>
       </c>
       <c r="M2">
-        <v>0.48466</v>
+        <v>0.48687</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5958,40 +5958,40 @@
         <v>117</v>
       </c>
       <c r="B3">
-        <v>0.18028</v>
+        <v>0.17977</v>
       </c>
       <c r="C3">
-        <v>0.17508</v>
+        <v>0.17473</v>
       </c>
       <c r="D3">
-        <v>0.18847</v>
+        <v>0.18772</v>
       </c>
       <c r="E3">
-        <v>0.11627</v>
+        <v>0.11616</v>
       </c>
       <c r="F3">
-        <v>0.38917</v>
+        <v>0.38873</v>
       </c>
       <c r="G3">
-        <v>0.06741</v>
+        <v>0.06719</v>
       </c>
       <c r="H3">
-        <v>0.0761</v>
+        <v>0.07598000000000001</v>
       </c>
       <c r="I3">
-        <v>0.07077</v>
+        <v>0.07058</v>
       </c>
       <c r="J3">
-        <v>0.24112</v>
+        <v>0.24093</v>
       </c>
       <c r="K3">
-        <v>0.34293</v>
+        <v>0.34134</v>
       </c>
       <c r="L3">
-        <v>0.03909</v>
+        <v>0.03899</v>
       </c>
       <c r="M3">
-        <v>0.29227</v>
+        <v>0.29065</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5999,40 +5999,40 @@
         <v>118</v>
       </c>
       <c r="B4">
-        <v>0.07711</v>
+        <v>0.07691000000000001</v>
       </c>
       <c r="C4">
-        <v>0.09562</v>
+        <v>0.09537</v>
       </c>
       <c r="D4">
-        <v>0.04791</v>
+        <v>0.0478</v>
       </c>
       <c r="E4">
-        <v>0.03054</v>
+        <v>0.03044</v>
       </c>
       <c r="F4">
-        <v>0.00052</v>
+        <v>0.00051</v>
       </c>
       <c r="G4">
-        <v>0.14003</v>
+        <v>0.13963</v>
       </c>
       <c r="H4">
-        <v>0.19203</v>
+        <v>0.19125</v>
       </c>
       <c r="I4">
-        <v>0.12915</v>
+        <v>0.12886</v>
       </c>
       <c r="J4">
-        <v>0.04608</v>
+        <v>0.04563</v>
       </c>
       <c r="K4">
-        <v>0.009209999999999999</v>
+        <v>0.00919</v>
       </c>
       <c r="L4">
-        <v>0.00625</v>
+        <v>0.00628</v>
       </c>
       <c r="M4">
-        <v>0.0289</v>
+        <v>0.02876</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6040,40 +6040,40 @@
         <v>119</v>
       </c>
       <c r="B5">
-        <v>0.04468</v>
+        <v>0.04459</v>
       </c>
       <c r="C5">
-        <v>0.03213</v>
+        <v>0.03205</v>
       </c>
       <c r="D5">
-        <v>0.06446</v>
+        <v>0.06437</v>
       </c>
       <c r="E5">
-        <v>0.067</v>
+        <v>0.06691999999999999</v>
       </c>
       <c r="F5">
-        <v>0.00417</v>
+        <v>0.00415</v>
       </c>
       <c r="G5">
-        <v>0.07831</v>
+        <v>0.07807</v>
       </c>
       <c r="H5">
-        <v>0.01372</v>
+        <v>0.01369</v>
       </c>
       <c r="I5">
-        <v>0.08556999999999999</v>
+        <v>0.08537</v>
       </c>
       <c r="J5">
-        <v>0.06295000000000001</v>
+        <v>0.06277000000000001</v>
       </c>
       <c r="K5">
-        <v>0.07215000000000001</v>
+        <v>0.0721</v>
       </c>
       <c r="L5">
-        <v>0.02599</v>
+        <v>0.02597</v>
       </c>
       <c r="M5">
-        <v>0.06571</v>
+        <v>0.06557</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6081,28 +6081,28 @@
         <v>120</v>
       </c>
       <c r="B6">
-        <v>0.03546</v>
+        <v>0.03553</v>
       </c>
       <c r="C6">
-        <v>0.03417</v>
+        <v>0.03424</v>
       </c>
       <c r="D6">
-        <v>0.03751</v>
+        <v>0.03757</v>
       </c>
       <c r="E6">
-        <v>0.03051</v>
+        <v>0.03057</v>
       </c>
       <c r="F6">
-        <v>0.00347</v>
+        <v>0.00346</v>
       </c>
       <c r="G6">
-        <v>0.1524</v>
+        <v>0.15288</v>
       </c>
       <c r="H6">
-        <v>0.00317</v>
+        <v>0.00316</v>
       </c>
       <c r="I6">
-        <v>0.13616</v>
+        <v>0.13626</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="M6">
         <v>4E-05</v>
@@ -6122,40 +6122,40 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.03206</v>
+        <v>0.03193</v>
       </c>
       <c r="C7">
-        <v>0.03065</v>
+        <v>0.03037</v>
       </c>
       <c r="D7">
-        <v>0.03429</v>
+        <v>0.0344</v>
       </c>
       <c r="E7">
-        <v>0.11056</v>
+        <v>0.10941</v>
       </c>
       <c r="F7">
-        <v>0.00539</v>
+        <v>0.00523</v>
       </c>
       <c r="G7">
-        <v>0.01085</v>
+        <v>0.01086</v>
       </c>
       <c r="H7">
-        <v>0.01817</v>
+        <v>0.01814</v>
       </c>
       <c r="I7">
-        <v>0.01133</v>
+        <v>0.01128</v>
       </c>
       <c r="J7">
-        <v>0.00801</v>
+        <v>0.008070000000000001</v>
       </c>
       <c r="K7">
-        <v>0.06102</v>
+        <v>0.0612</v>
       </c>
       <c r="L7">
-        <v>0.06287</v>
+        <v>0.06322</v>
       </c>
       <c r="M7">
-        <v>0.00759</v>
+        <v>0.00765</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6163,40 +6163,40 @@
         <v>121</v>
       </c>
       <c r="B8">
-        <v>0.03156</v>
+        <v>0.03143</v>
       </c>
       <c r="C8">
-        <v>0.02475</v>
+        <v>0.02466</v>
       </c>
       <c r="D8">
-        <v>0.04229</v>
+        <v>0.04211</v>
       </c>
       <c r="E8">
-        <v>0.00992</v>
+        <v>0.00987</v>
       </c>
       <c r="F8">
-        <v>0.04541</v>
+        <v>0.04533</v>
       </c>
       <c r="G8">
-        <v>0.00739</v>
+        <v>0.00729</v>
       </c>
       <c r="H8">
-        <v>0.02381</v>
+        <v>0.0237</v>
       </c>
       <c r="I8">
-        <v>0.00847</v>
+        <v>0.008489999999999999</v>
       </c>
       <c r="J8">
-        <v>0.12342</v>
+        <v>0.12277</v>
       </c>
       <c r="K8">
-        <v>0.01834</v>
+        <v>0.01827</v>
       </c>
       <c r="L8">
-        <v>0.09080000000000001</v>
+        <v>0.09067</v>
       </c>
       <c r="M8">
-        <v>0.03781</v>
+        <v>0.03757</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6204,40 +6204,40 @@
         <v>122</v>
       </c>
       <c r="B9">
-        <v>0.02452</v>
+        <v>0.02454</v>
       </c>
       <c r="C9">
-        <v>0.03154</v>
+        <v>0.03157</v>
       </c>
       <c r="D9">
-        <v>0.01346</v>
+        <v>0.01345</v>
       </c>
       <c r="E9">
-        <v>0.00254</v>
+        <v>0.00253</v>
       </c>
       <c r="F9">
-        <v>0.08891</v>
+        <v>0.08907</v>
       </c>
       <c r="G9">
         <v>0.00128</v>
       </c>
       <c r="H9">
-        <v>0.01308</v>
+        <v>0.01312</v>
       </c>
       <c r="I9">
-        <v>0.00112</v>
+        <v>0.00111</v>
       </c>
       <c r="J9">
-        <v>0.00175</v>
+        <v>0.00176</v>
       </c>
       <c r="K9">
-        <v>0.00322</v>
+        <v>0.00316</v>
       </c>
       <c r="L9">
-        <v>0.05518</v>
+        <v>0.05523</v>
       </c>
       <c r="M9">
-        <v>0.00438</v>
+        <v>0.00444</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6245,40 +6245,40 @@
         <v>123</v>
       </c>
       <c r="B10">
-        <v>0.02421</v>
+        <v>0.02424</v>
       </c>
       <c r="C10">
-        <v>0.02992</v>
+        <v>0.02996</v>
       </c>
       <c r="D10">
-        <v>0.0152</v>
+        <v>0.01523</v>
       </c>
       <c r="E10">
-        <v>0.0067</v>
+        <v>0.00673</v>
       </c>
       <c r="F10">
-        <v>0.07382</v>
+        <v>0.07392</v>
       </c>
       <c r="G10">
-        <v>0.02287</v>
+        <v>0.02298</v>
       </c>
       <c r="H10">
-        <v>0.00825</v>
+        <v>0.00826</v>
       </c>
       <c r="I10">
-        <v>0.02523</v>
+        <v>0.02528</v>
       </c>
       <c r="J10">
-        <v>0.00204</v>
+        <v>0.00202</v>
       </c>
       <c r="K10">
-        <v>0.02759</v>
+        <v>0.02762</v>
       </c>
       <c r="L10">
-        <v>0.00174</v>
+        <v>0.00172</v>
       </c>
       <c r="M10">
-        <v>0.0023</v>
+        <v>0.00233</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6286,40 +6286,40 @@
         <v>124</v>
       </c>
       <c r="B11">
-        <v>0.02121</v>
+        <v>0.02124</v>
       </c>
       <c r="C11">
-        <v>0.01955</v>
+        <v>0.01959</v>
       </c>
       <c r="D11">
-        <v>0.02382</v>
+        <v>0.02384</v>
       </c>
       <c r="E11">
-        <v>0.09587</v>
+        <v>0.09612999999999999</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00042</v>
+        <v>0.00043</v>
       </c>
       <c r="H11">
-        <v>0.00376</v>
+        <v>0.00377</v>
       </c>
       <c r="I11">
         <v>0.00032</v>
       </c>
       <c r="J11">
-        <v>0.009560000000000001</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="K11">
-        <v>0.02868</v>
+        <v>0.02877</v>
       </c>
       <c r="L11">
-        <v>0.0648</v>
+        <v>0.06478</v>
       </c>
       <c r="M11">
-        <v>0.01129</v>
+        <v>0.01135</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6327,25 +6327,25 @@
         <v>125</v>
       </c>
       <c r="B12">
-        <v>0.01433</v>
+        <v>0.01431</v>
       </c>
       <c r="C12">
-        <v>0.02106</v>
+        <v>0.02103</v>
       </c>
       <c r="D12">
         <v>0.00371</v>
       </c>
       <c r="E12">
-        <v>0.02652</v>
+        <v>0.02654</v>
       </c>
       <c r="F12">
-        <v>0.02406</v>
+        <v>0.02407</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02604</v>
+        <v>0.02594</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -6354,13 +6354,13 @@
         <v>0.00293</v>
       </c>
       <c r="K12">
-        <v>0.0118</v>
+        <v>0.01178</v>
       </c>
       <c r="L12">
-        <v>0.00047</v>
+        <v>0.00046</v>
       </c>
       <c r="M12">
-        <v>0.00142</v>
+        <v>0.00143</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6368,34 +6368,34 @@
         <v>126</v>
       </c>
       <c r="B13">
-        <v>0.00984</v>
+        <v>0.009849999999999999</v>
       </c>
       <c r="C13">
-        <v>0.01427</v>
+        <v>0.01428</v>
       </c>
       <c r="D13">
-        <v>0.00286</v>
+        <v>0.00285</v>
       </c>
       <c r="E13">
-        <v>0.0006400000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="F13">
-        <v>0.03727</v>
+        <v>0.03739</v>
       </c>
       <c r="G13">
-        <v>0.00497</v>
+        <v>0.00499</v>
       </c>
       <c r="H13">
-        <v>0.00655</v>
+        <v>0.00651</v>
       </c>
       <c r="I13">
-        <v>0.00572</v>
+        <v>0.00571</v>
       </c>
       <c r="J13">
-        <v>0.00092</v>
+        <v>0.00091</v>
       </c>
       <c r="K13">
-        <v>0.00352</v>
+        <v>0.00349</v>
       </c>
       <c r="L13">
         <v>0.00027</v>
@@ -6409,40 +6409,40 @@
         <v>127</v>
       </c>
       <c r="B14">
-        <v>0.00963</v>
+        <v>0.00966</v>
       </c>
       <c r="C14">
-        <v>0.00889</v>
+        <v>0.008920000000000001</v>
       </c>
       <c r="D14">
-        <v>0.01079</v>
+        <v>0.01083</v>
       </c>
       <c r="E14">
-        <v>0.008869999999999999</v>
+        <v>0.00893</v>
       </c>
       <c r="F14">
         <v>0.00032</v>
       </c>
       <c r="G14">
-        <v>0.01453</v>
+        <v>0.01451</v>
       </c>
       <c r="H14">
-        <v>0.01351</v>
+        <v>0.01355</v>
       </c>
       <c r="I14">
-        <v>0.01328</v>
+        <v>0.0133</v>
       </c>
       <c r="J14">
-        <v>0.00584</v>
+        <v>0.00591</v>
       </c>
       <c r="K14">
-        <v>0.01351</v>
+        <v>0.01356</v>
       </c>
       <c r="L14">
-        <v>0.00554</v>
+        <v>0.00561</v>
       </c>
       <c r="M14">
-        <v>0.0112</v>
+        <v>0.01118</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6450,40 +6450,40 @@
         <v>80</v>
       </c>
       <c r="B15">
-        <v>0.0064</v>
+        <v>0.00638</v>
       </c>
       <c r="C15">
-        <v>0.00693</v>
+        <v>0.00691</v>
       </c>
       <c r="D15">
-        <v>0.00558</v>
+        <v>0.00554</v>
       </c>
       <c r="E15">
-        <v>0.02144</v>
+        <v>0.02138</v>
       </c>
       <c r="F15">
-        <v>0.00046</v>
+        <v>0.00045</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.007979999999999999</v>
+        <v>0.00797</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01966</v>
+        <v>0.01972</v>
       </c>
       <c r="K15">
-        <v>6E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="L15">
-        <v>0.01704</v>
+        <v>0.01693</v>
       </c>
       <c r="M15">
-        <v>0.00281</v>
+        <v>0.00276</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -6491,40 +6491,40 @@
         <v>128</v>
       </c>
       <c r="B16">
-        <v>0.0055</v>
+        <v>0.00554</v>
       </c>
       <c r="C16">
-        <v>0.00371</v>
+        <v>0.00377</v>
       </c>
       <c r="D16">
-        <v>0.008319999999999999</v>
+        <v>0.008330000000000001</v>
       </c>
       <c r="E16">
-        <v>0.01204</v>
+        <v>0.01203</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.007979999999999999</v>
+        <v>0.00795</v>
       </c>
       <c r="H16">
-        <v>0.00015</v>
+        <v>0.00036</v>
       </c>
       <c r="I16">
-        <v>0.00459</v>
+        <v>0.00461</v>
       </c>
       <c r="J16">
-        <v>0.00283</v>
+        <v>0.00286</v>
       </c>
       <c r="K16">
-        <v>0.00321</v>
+        <v>0.00324</v>
       </c>
       <c r="L16">
-        <v>0.02675</v>
+        <v>0.02676</v>
       </c>
       <c r="M16">
-        <v>0.00262</v>
+        <v>0.00261</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -6532,40 +6532,40 @@
         <v>129</v>
       </c>
       <c r="B17">
-        <v>0.0047</v>
+        <v>0.00471</v>
       </c>
       <c r="C17">
-        <v>0.00249</v>
+        <v>0.0025</v>
       </c>
       <c r="D17">
-        <v>0.00818</v>
+        <v>0.008189999999999999</v>
       </c>
       <c r="E17">
-        <v>0.00165</v>
+        <v>0.00166</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.00151</v>
+        <v>0.00152</v>
       </c>
       <c r="H17">
-        <v>0.00563</v>
+        <v>0.00564</v>
       </c>
       <c r="I17">
-        <v>0.00116</v>
+        <v>0.00117</v>
       </c>
       <c r="J17">
-        <v>0.02385</v>
+        <v>0.02406</v>
       </c>
       <c r="K17">
-        <v>0.00108</v>
+        <v>0.00109</v>
       </c>
       <c r="L17">
-        <v>0.00539</v>
+        <v>0.00541</v>
       </c>
       <c r="M17">
-        <v>0.02641</v>
+        <v>0.02632</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -6573,19 +6573,19 @@
         <v>130</v>
       </c>
       <c r="B18">
-        <v>0.0033</v>
+        <v>0.00329</v>
       </c>
       <c r="C18">
-        <v>0.00326</v>
+        <v>0.00322</v>
       </c>
       <c r="D18">
-        <v>0.00335</v>
+        <v>0.0034</v>
       </c>
       <c r="E18">
-        <v>0.00512</v>
+        <v>0.00488</v>
       </c>
       <c r="F18">
-        <v>0.00333</v>
+        <v>0.00334</v>
       </c>
       <c r="G18">
         <v>0.00723</v>
@@ -6594,16 +6594,16 @@
         <v>0.00018</v>
       </c>
       <c r="I18">
-        <v>0.00496</v>
+        <v>0.00495</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.00661</v>
+        <v>0.00665</v>
       </c>
       <c r="L18">
-        <v>0.00109</v>
+        <v>0.00132</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -6614,10 +6614,10 @@
         <v>131</v>
       </c>
       <c r="B19">
-        <v>0.00288</v>
+        <v>0.00289</v>
       </c>
       <c r="C19">
-        <v>0.0047</v>
+        <v>0.00472</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01586</v>
+        <v>0.01593</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -6658,37 +6658,37 @@
         <v>0.00287</v>
       </c>
       <c r="C20">
-        <v>0.00445</v>
+        <v>0.00444</v>
       </c>
       <c r="D20">
-        <v>0.00039</v>
+        <v>0.0004</v>
       </c>
       <c r="E20">
-        <v>0.00581</v>
+        <v>0.00578</v>
       </c>
       <c r="F20">
-        <v>3E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.009769999999999999</v>
+        <v>0.00974</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0005</v>
+        <v>0.00049</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.0004</v>
+        <v>0.00041</v>
       </c>
       <c r="M20">
-        <v>0.00156</v>
+        <v>0.00157</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -6696,40 +6696,40 @@
         <v>132</v>
       </c>
       <c r="B21">
-        <v>0.00263</v>
+        <v>0.0026</v>
       </c>
       <c r="C21">
-        <v>0.00209</v>
+        <v>0.00208</v>
       </c>
       <c r="D21">
-        <v>0.00349</v>
+        <v>0.00343</v>
       </c>
       <c r="E21">
-        <v>0.00252</v>
+        <v>0.00253</v>
       </c>
       <c r="F21">
         <v>0.00113</v>
       </c>
       <c r="G21">
-        <v>0.00684</v>
+        <v>0.0068</v>
       </c>
       <c r="H21">
         <v>0.00027</v>
       </c>
       <c r="I21">
-        <v>0.00821</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="J21">
-        <v>0.00179</v>
+        <v>0.00174</v>
       </c>
       <c r="K21">
-        <v>0.0006400000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="L21">
-        <v>0.00322</v>
+        <v>0.00323</v>
       </c>
       <c r="M21">
-        <v>0.00145</v>
+        <v>0.00144</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -6752,22 +6752,22 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.00295</v>
+        <v>0.00296</v>
       </c>
       <c r="H22">
         <v>0.00029</v>
       </c>
       <c r="I22">
-        <v>0.00202</v>
+        <v>0.00199</v>
       </c>
       <c r="J22">
-        <v>0.00052</v>
+        <v>0.00054</v>
       </c>
       <c r="K22">
-        <v>0.0004</v>
+        <v>0.00039</v>
       </c>
       <c r="L22">
-        <v>0.00878</v>
+        <v>0.008829999999999999</v>
       </c>
       <c r="M22">
         <v>0.00068</v>
@@ -6778,40 +6778,40 @@
         <v>134</v>
       </c>
       <c r="B23">
-        <v>0.00145</v>
+        <v>0.00144</v>
       </c>
       <c r="C23">
-        <v>0.00103</v>
+        <v>0.00102</v>
       </c>
       <c r="D23">
         <v>0.00211</v>
       </c>
       <c r="E23">
-        <v>0.00443</v>
+        <v>0.00438</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.00072</v>
+        <v>0.00071</v>
       </c>
       <c r="H23">
         <v>0.00019</v>
       </c>
       <c r="I23">
-        <v>0.00041</v>
+        <v>0.00043</v>
       </c>
       <c r="J23">
-        <v>0.00386</v>
+        <v>0.00388</v>
       </c>
       <c r="K23">
-        <v>0.00086</v>
+        <v>0.00085</v>
       </c>
       <c r="L23">
-        <v>0.00554</v>
+        <v>0.00552</v>
       </c>
       <c r="M23">
-        <v>0.00185</v>
+        <v>0.00188</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -6819,22 +6819,22 @@
         <v>135</v>
       </c>
       <c r="B24">
-        <v>0.00123</v>
+        <v>0.00124</v>
       </c>
       <c r="C24">
-        <v>0.00163</v>
+        <v>0.00164</v>
       </c>
       <c r="D24">
-        <v>0.00061</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E24">
-        <v>0.0076</v>
+        <v>0.00764</v>
       </c>
       <c r="F24">
-        <v>0.00012</v>
+        <v>0.00013</v>
       </c>
       <c r="G24">
-        <v>0.00023</v>
+        <v>0.00022</v>
       </c>
       <c r="H24">
         <v>0.00034</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.00209</v>
+        <v>0.00207</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -6863,7 +6863,7 @@
         <v>0.0012</v>
       </c>
       <c r="C25">
-        <v>0.00184</v>
+        <v>0.00185</v>
       </c>
       <c r="D25">
         <v>0.00018</v>
@@ -6878,19 +6878,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.00482</v>
+        <v>0.00481</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.00079</v>
+        <v>0.00082</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.00018</v>
+        <v>0.00017</v>
       </c>
       <c r="M25">
         <v>0.00044</v>
@@ -6901,40 +6901,40 @@
         <v>136</v>
       </c>
       <c r="B26">
-        <v>0.00113</v>
+        <v>0.00105</v>
       </c>
       <c r="C26">
-        <v>0.00066</v>
+        <v>0.00104</v>
       </c>
       <c r="D26">
-        <v>0.00186</v>
+        <v>0.00106</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.00416</v>
       </c>
       <c r="F26">
-        <v>0.00173</v>
+        <v>4E-05</v>
       </c>
       <c r="G26">
-        <v>4E-05</v>
+        <v>0.0005</v>
       </c>
       <c r="H26">
-        <v>0.00042</v>
+        <v>0.00044</v>
       </c>
       <c r="I26">
-        <v>6.999999999999999E-05</v>
+        <v>0.00059</v>
       </c>
       <c r="J26">
-        <v>0.00033</v>
+        <v>0.00077</v>
       </c>
       <c r="K26">
-        <v>0.00112</v>
+        <v>0.00176</v>
       </c>
       <c r="L26">
-        <v>0.00654</v>
+        <v>0.00094</v>
       </c>
       <c r="M26">
-        <v>0.00095</v>
+        <v>0.00101</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -6942,163 +6942,163 @@
         <v>137</v>
       </c>
       <c r="B27">
-        <v>0.00105</v>
+        <v>0.00104</v>
       </c>
       <c r="C27">
-        <v>0.00104</v>
+        <v>0.00169</v>
       </c>
       <c r="D27">
-        <v>0.00107</v>
+        <v>3E-05</v>
       </c>
       <c r="E27">
-        <v>0.00419</v>
+        <v>0.00025</v>
       </c>
       <c r="F27">
-        <v>4E-05</v>
+        <v>0.00513</v>
       </c>
       <c r="G27">
-        <v>0.00049</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0.00044</v>
+        <v>0.00035</v>
       </c>
       <c r="I27">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.00076</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0.00179</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0.00095</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0.00102</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B28">
-        <v>0.00104</v>
+        <v>0.00098</v>
       </c>
       <c r="C28">
-        <v>0.00168</v>
+        <v>0.00148</v>
       </c>
       <c r="D28">
-        <v>3E-05</v>
+        <v>0.00019</v>
       </c>
       <c r="E28">
-        <v>0.00025</v>
+        <v>0.0024</v>
       </c>
       <c r="F28">
-        <v>0.00511</v>
+        <v>0.00022</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="H28">
-        <v>0.00035</v>
+        <v>0.0028</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>0.00048</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.00011</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.00036</v>
       </c>
       <c r="M28">
-        <v>0.00016</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B29">
-        <v>0.00098</v>
+        <v>0.00094</v>
       </c>
       <c r="C29">
-        <v>0.00147</v>
+        <v>0.00143</v>
       </c>
       <c r="D29">
-        <v>0.0002</v>
+        <v>0.00017</v>
       </c>
       <c r="E29">
-        <v>0.00238</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.00022</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>4E-05</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0.00278</v>
+        <v>0.00419</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.00049</v>
+        <v>0.0004</v>
       </c>
       <c r="K29">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>0.00036</v>
+        <v>0.00044</v>
       </c>
       <c r="M29">
-        <v>0.00032</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="B30">
-        <v>0.00095</v>
+        <v>0.00094</v>
       </c>
       <c r="C30">
-        <v>0.00145</v>
+        <v>0.00034</v>
       </c>
       <c r="D30">
-        <v>0.00017</v>
+        <v>0.00187</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.00066</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="H30">
-        <v>0.00424</v>
+        <v>0.00041</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="J30">
-        <v>0.0004</v>
+        <v>0.00034</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.00114</v>
       </c>
       <c r="L30">
-        <v>0.00043</v>
+        <v>0.00656</v>
       </c>
       <c r="M30">
-        <v>0.00029</v>
+        <v>0.00096</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -7106,19 +7106,19 @@
         <v>139</v>
       </c>
       <c r="B31">
-        <v>0.00081</v>
+        <v>0.0008</v>
       </c>
       <c r="C31">
         <v>0.00057</v>
       </c>
       <c r="D31">
-        <v>0.00119</v>
+        <v>0.00118</v>
       </c>
       <c r="E31">
-        <v>0.00043</v>
+        <v>0.00042</v>
       </c>
       <c r="F31">
-        <v>0.00129</v>
+        <v>0.00127</v>
       </c>
       <c r="G31">
         <v>0.00053</v>
@@ -7130,16 +7130,16 @@
         <v>0.00041</v>
       </c>
       <c r="J31">
-        <v>0.00217</v>
+        <v>0.00214</v>
       </c>
       <c r="K31">
-        <v>0.00038</v>
+        <v>0.00036</v>
       </c>
       <c r="L31">
-        <v>0.00192</v>
+        <v>0.00195</v>
       </c>
       <c r="M31">
-        <v>0.00232</v>
+        <v>0.00229</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -7147,25 +7147,25 @@
         <v>140</v>
       </c>
       <c r="B32">
-        <v>0.00077</v>
+        <v>0.00076</v>
       </c>
       <c r="C32">
-        <v>0.0007</v>
+        <v>0.00069</v>
       </c>
       <c r="D32">
-        <v>0.0008899999999999999</v>
+        <v>0.00088</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.00027</v>
+        <v>0.00028</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.0018</v>
+        <v>0.00178</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -7174,10 +7174,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0.00058</v>
+        <v>0.00056</v>
       </c>
       <c r="L32">
-        <v>0.00355</v>
+        <v>0.00354</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -7194,7 +7194,7 @@
         <v>0.00024</v>
       </c>
       <c r="D33">
-        <v>0.00132</v>
+        <v>0.00131</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>8.000000000000001E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -7218,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>0.00637</v>
+        <v>0.00635</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>0.00039</v>
       </c>
       <c r="F34">
-        <v>0.00184</v>
+        <v>0.00185</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -7253,16 +7253,16 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.00037</v>
+        <v>0.00039</v>
       </c>
       <c r="K34">
-        <v>0.0004</v>
+        <v>0.00041</v>
       </c>
       <c r="L34">
         <v>0.00063</v>
       </c>
       <c r="M34">
-        <v>0.00015</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.00323</v>
+        <v>0.00324</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -7332,10 +7332,10 @@
         <v>4E-05</v>
       </c>
       <c r="I36">
-        <v>0.0025</v>
+        <v>0.00253</v>
       </c>
       <c r="J36">
-        <v>0.00024</v>
+        <v>0.00016</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -7393,10 +7393,10 @@
         <v>146</v>
       </c>
       <c r="B38">
-        <v>0.00039</v>
+        <v>0.0004</v>
       </c>
       <c r="C38">
-        <v>0.0005</v>
+        <v>0.00051</v>
       </c>
       <c r="D38">
         <v>0.00022</v>
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.00077</v>
+        <v>0.00078</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -7420,13 +7420,13 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0.00021</v>
+        <v>0.00022</v>
       </c>
       <c r="L38">
         <v>0.00041</v>
       </c>
       <c r="M38">
-        <v>0.00043</v>
+        <v>0.00044</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -7440,13 +7440,13 @@
         <v>0.00061</v>
       </c>
       <c r="D39">
-        <v>4E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.00087</v>
+        <v>0.00088</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0.00021</v>
+        <v>0.00022</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.0008</v>
+        <v>0.00082</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -7519,19 +7519,19 @@
         <v>0.00037</v>
       </c>
       <c r="C41">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="D41">
-        <v>0.00077</v>
+        <v>0.00078</v>
       </c>
       <c r="E41">
-        <v>0.0001</v>
+        <v>6E-05</v>
       </c>
       <c r="F41">
         <v>6E-05</v>
       </c>
       <c r="G41">
-        <v>0.00023</v>
+        <v>0.00022</v>
       </c>
       <c r="H41">
         <v>0.00012</v>
@@ -7543,13 +7543,13 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0.00028</v>
+        <v>0.00027</v>
       </c>
       <c r="L41">
-        <v>0.00302</v>
+        <v>0.00305</v>
       </c>
       <c r="M41">
-        <v>0.00018</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -7581,13 +7581,13 @@
         <v>0.00014</v>
       </c>
       <c r="J42">
-        <v>6.999999999999999E-05</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0.00032</v>
       </c>
       <c r="L42">
-        <v>6.999999999999999E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="M42">
         <v>0.00029</v>
@@ -7604,7 +7604,7 @@
         <v>0.00037</v>
       </c>
       <c r="D43">
-        <v>0.00021</v>
+        <v>0.0002</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0.001</v>
+        <v>0.00099</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -7642,37 +7642,37 @@
         <v>0.0003</v>
       </c>
       <c r="C44">
-        <v>0.00026</v>
+        <v>6E-05</v>
       </c>
       <c r="D44">
-        <v>0.00037</v>
+        <v>0.00068</v>
       </c>
       <c r="E44">
-        <v>0.0008</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="G44">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0.00022</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.00059</v>
+        <v>0.00043</v>
       </c>
       <c r="K44">
-        <v>0.00123</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>0.00166</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>0.00174</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -7683,37 +7683,37 @@
         <v>0.0003</v>
       </c>
       <c r="C45">
-        <v>5E-05</v>
+        <v>0.00024</v>
       </c>
       <c r="D45">
-        <v>0.00068</v>
+        <v>0.00038</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.00072</v>
       </c>
       <c r="F45">
-        <v>8.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.00017</v>
       </c>
       <c r="H45">
-        <v>9.000000000000001E-05</v>
+        <v>0.00022</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.00046</v>
+        <v>0.00061</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>0.00124</v>
       </c>
       <c r="L45">
-        <v>0.00166</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>0.00175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0.00029</v>
+        <v>0.0003</v>
       </c>
       <c r="L46">
         <v>0.0004</v>
@@ -7768,10 +7768,10 @@
         <v>0.00023</v>
       </c>
       <c r="D47">
-        <v>0.00027</v>
+        <v>0.00028</v>
       </c>
       <c r="E47">
-        <v>0.00117</v>
+        <v>0.00116</v>
       </c>
       <c r="F47">
         <v>4E-05</v>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0.00018</v>
+        <v>0.00019</v>
       </c>
       <c r="L47">
         <v>0.00109</v>
@@ -7803,7 +7803,7 @@
         <v>156</v>
       </c>
       <c r="B48">
-        <v>0.00025</v>
+        <v>0.00024</v>
       </c>
       <c r="C48">
         <v>0.0004</v>
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0.00211</v>
+        <v>0.0021</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -7885,13 +7885,13 @@
         <v>158</v>
       </c>
       <c r="B50">
-        <v>0.00023</v>
+        <v>0.00022</v>
       </c>
       <c r="C50">
         <v>0.00016</v>
       </c>
       <c r="D50">
-        <v>0.00033</v>
+        <v>0.00032</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -7906,19 +7906,19 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0.00076</v>
+        <v>0.00077</v>
       </c>
       <c r="J50">
-        <v>0.00026</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>0.00016</v>
+        <v>0.00017</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0.00034</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -7926,28 +7926,28 @@
         <v>159</v>
       </c>
       <c r="B51">
-        <v>0.0002</v>
+        <v>0.00018</v>
       </c>
       <c r="C51">
         <v>0.00019</v>
       </c>
       <c r="D51">
-        <v>0.0002</v>
+        <v>0.00017</v>
       </c>
       <c r="E51">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="F51">
         <v>0.00038</v>
       </c>
       <c r="G51">
-        <v>0.00014</v>
+        <v>0.00013</v>
       </c>
       <c r="H51">
-        <v>0.0001</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I51">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0.00056</v>
       </c>
       <c r="M51">
-        <v>0.00013</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -8011,13 +8011,13 @@
         <v>0.00015</v>
       </c>
       <c r="C53">
-        <v>8.000000000000001E-05</v>
+        <v>0.00025</v>
       </c>
       <c r="D53">
-        <v>0.00026</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0.00041</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>0.00073</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -8038,10 +8038,10 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0.0009300000000000001</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>0.00042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -8052,13 +8052,13 @@
         <v>0.00015</v>
       </c>
       <c r="C54">
-        <v>0.00025</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>0.00027</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.00072</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -8079,10 +8079,10 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>0.00095</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>0.00042</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -8093,7 +8093,7 @@
         <v>0.00015</v>
       </c>
       <c r="C55">
-        <v>9.000000000000001E-05</v>
+        <v>0.0001</v>
       </c>
       <c r="D55">
         <v>0.00024</v>
@@ -8108,13 +8108,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.00027</v>
+        <v>0.00028</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0.001</v>
+        <v>0.00103</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0.00092</v>
+        <v>0.00091</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -8137,7 +8137,7 @@
         <v>0.00017</v>
       </c>
       <c r="D56">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -8146,13 +8146,13 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="G56">
+        <v>0.00028</v>
+      </c>
+      <c r="H56">
         <v>0.00029</v>
       </c>
-      <c r="H56">
-        <v>0.00027</v>
-      </c>
       <c r="I56">
-        <v>0.00014</v>
+        <v>0.00015</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -8164,7 +8164,7 @@
         <v>0.00015</v>
       </c>
       <c r="M56">
-        <v>8.000000000000001E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -8184,28 +8184,28 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.00045</v>
+        <v>0.00046</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>4E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.00066</v>
+        <v>0.00067</v>
       </c>
       <c r="K57">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -8231,7 +8231,7 @@
         <v>0.00025</v>
       </c>
       <c r="H58">
-        <v>0.0003</v>
+        <v>0.00029</v>
       </c>
       <c r="I58">
         <v>0.00016</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0.00014</v>
+        <v>0.00015</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0.00029</v>
+        <v>0.0003</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -8281,13 +8281,13 @@
         <v>0.00042</v>
       </c>
       <c r="K59">
-        <v>9.000000000000001E-05</v>
+        <v>0.0001</v>
       </c>
       <c r="L59">
-        <v>0.00027</v>
+        <v>0.00026</v>
       </c>
       <c r="M59">
-        <v>0.00104</v>
+        <v>0.00106</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -8298,22 +8298,22 @@
         <v>0.00011</v>
       </c>
       <c r="C60">
-        <v>0.00017</v>
+        <v>0.00018</v>
       </c>
       <c r="D60">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0.00025</v>
+        <v>0.00095</v>
       </c>
       <c r="F60">
-        <v>0.00024</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -8325,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -8339,22 +8339,22 @@
         <v>0.00011</v>
       </c>
       <c r="C61">
-        <v>0.00018</v>
+        <v>0.00016</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="E61">
-        <v>0.0009300000000000001</v>
+        <v>0.00026</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.00023</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -8392,13 +8392,13 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.0002</v>
+        <v>0.00021</v>
       </c>
       <c r="H62">
         <v>0.00011</v>
       </c>
       <c r="I62">
-        <v>0.0001</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -8424,10 +8424,10 @@
         <v>0.0001</v>
       </c>
       <c r="D63">
-        <v>0.0001</v>
+        <v>0.00011</v>
       </c>
       <c r="E63">
-        <v>8.000000000000001E-05</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -8445,10 +8445,10 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0.00024</v>
+        <v>0.00025</v>
       </c>
       <c r="L63">
-        <v>8.000000000000001E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="M63">
         <v>0.00014</v>
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0.00048</v>
+        <v>0.00047</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -8503,20 +8503,20 @@
         <v>9.000000000000001E-05</v>
       </c>
       <c r="C65">
-        <v>0.00013</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="D65">
+        <v>0.00012</v>
+      </c>
+      <c r="E65">
+        <v>0.0001</v>
+      </c>
+      <c r="F65">
+        <v>0.00016</v>
+      </c>
+      <c r="G65">
         <v>2E-05</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0.00045</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
       <c r="H65">
         <v>0</v>
       </c>
@@ -8527,13 +8527,13 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>6E-05</v>
+        <v>0.00029</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -8544,19 +8544,19 @@
         <v>9.000000000000001E-05</v>
       </c>
       <c r="C66">
-        <v>6.999999999999999E-05</v>
+        <v>0.00014</v>
       </c>
       <c r="D66">
-        <v>0.00012</v>
+        <v>2E-05</v>
       </c>
       <c r="E66">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.00016</v>
+        <v>0.00046</v>
       </c>
       <c r="G66">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -8568,13 +8568,13 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0.00028</v>
+        <v>6E-05</v>
       </c>
       <c r="L66">
-        <v>8.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.00033</v>
+        <v>0.00032</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -8635,28 +8635,28 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="G68">
-        <v>0.00031</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>3E-05</v>
+        <v>0.00014</v>
       </c>
       <c r="I68">
-        <v>0.00024</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>0.00052</v>
       </c>
       <c r="K68">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="M68">
-        <v>0.00016</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -8676,42 +8676,42 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="H69">
-        <v>0.00014</v>
+        <v>3E-05</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>0.00025</v>
       </c>
       <c r="J69">
-        <v>0.00052</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="L69">
-        <v>5E-05</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>0.00039</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B70">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D70">
-        <v>0.00021</v>
+        <v>0.00019</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -8732,10 +8732,10 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>0.00073</v>
       </c>
       <c r="L70">
-        <v>0.00101</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -8743,16 +8743,16 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B71">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="C71">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0.00019</v>
+        <v>0.00021</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>3E-05</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -8773,10 +8773,10 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0.00072</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>0.00102</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -8790,22 +8790,22 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="D72">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -8814,13 +8814,13 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0.00018</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>0.00024</v>
+        <v>0.00051</v>
       </c>
       <c r="M72">
-        <v>0.00062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -8831,22 +8831,22 @@
         <v>8.000000000000001E-05</v>
       </c>
       <c r="C73">
-        <v>6E-05</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0.00011</v>
+        <v>0.00019</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>9.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -8855,13 +8855,13 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>0.00018</v>
       </c>
       <c r="L73">
-        <v>0.00051</v>
+        <v>0.00022</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>0.00058</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -8878,7 +8878,7 @@
         <v>0.00011</v>
       </c>
       <c r="E74">
-        <v>0.00023</v>
+        <v>0.00021</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -8899,10 +8899,10 @@
         <v>0.00024</v>
       </c>
       <c r="L74">
-        <v>0.00016</v>
+        <v>0.00017</v>
       </c>
       <c r="M74">
-        <v>0.0001</v>
+        <v>9.000000000000001E-05</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -8913,16 +8913,16 @@
         <v>6E-05</v>
       </c>
       <c r="C75">
-        <v>9.000000000000001E-05</v>
+        <v>0.0001</v>
       </c>
       <c r="D75">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.00015</v>
+        <v>0.00016</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -8931,7 +8931,7 @@
         <v>0.00014</v>
       </c>
       <c r="I75">
-        <v>5E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -8951,25 +8951,25 @@
         <v>182</v>
       </c>
       <c r="B76">
+        <v>6E-05</v>
+      </c>
+      <c r="C76">
+        <v>9.000000000000001E-05</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0.0001</v>
+      </c>
+      <c r="F76">
         <v>5E-05</v>
       </c>
-      <c r="C76">
-        <v>8.000000000000001E-05</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>9.000000000000001E-05</v>
-      </c>
-      <c r="F76">
-        <v>4E-05</v>
-      </c>
       <c r="G76">
-        <v>0</v>
+        <v>6E-05</v>
       </c>
       <c r="H76">
-        <v>0.00015</v>
+        <v>0.00014</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0.00022</v>
+        <v>0.00021</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -9104,7 +9104,7 @@
         <v>6E-05</v>
       </c>
       <c r="L79">
-        <v>0.00048</v>
+        <v>0.00047</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.00023</v>
+        <v>0.00024</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -9238,7 +9238,7 @@
         <v>189</v>
       </c>
       <c r="B83">
-        <v>3E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="C83">
         <v>4E-05</v>
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0.00021</v>
+        <v>0.00022</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0.00016</v>
+        <v>0.00015</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -9350,7 +9350,7 @@
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0.00029</v>
+        <v>0.0003</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -9361,7 +9361,7 @@
         <v>192</v>
       </c>
       <c r="B86">
-        <v>2E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>5E-05</v>
       </c>
       <c r="L88">
-        <v>0.00021</v>
+        <v>0.00022</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>6.999999999999999E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -9610,13 +9610,13 @@
         <v>2E-05</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="D92">
-        <v>4E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0.00016</v>
+        <v>6E-05</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -9648,16 +9648,16 @@
         <v>199</v>
       </c>
       <c r="B93">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="C93">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>1E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="E93">
-        <v>8.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>6E-05</v>
+        <v>0.00015</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -9704,10 +9704,10 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="H94">
-        <v>6.999999999999999E-05</v>
+        <v>5E-05</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -9745,10 +9745,10 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>3E-05</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>5E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -10146,13 +10146,13 @@
         <v>1E-05</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="E105">
-        <v>6E-05</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>2E-05</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>4E-05</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -10178,22 +10178,22 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="B106">
         <v>1E-05</v>
       </c>
       <c r="C106">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="L106">
-        <v>4E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -10219,16 +10219,16 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="B107">
         <v>1E-05</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="D107">
-        <v>2E-05</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -10240,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3E-05</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="L107">
-        <v>8.000000000000001E-05</v>
+        <v>0</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>5E-05</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -10281,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>3E-05</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -10304,7 +10304,7 @@
         <v>213</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1E-05</v>
       </c>
       <c r="C109">
         <v>1E-05</v>
@@ -10601,40 +10601,40 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0.57797</v>
+        <v>0.57857</v>
       </c>
       <c r="C2">
-        <v>0.60187</v>
+        <v>0.60184</v>
       </c>
       <c r="D2">
-        <v>0.54152</v>
+        <v>0.5431</v>
       </c>
       <c r="E2">
-        <v>0.84373</v>
+        <v>0.84337</v>
       </c>
       <c r="F2">
-        <v>0.35647</v>
+        <v>0.35598</v>
       </c>
       <c r="G2">
-        <v>0.9188499999999999</v>
+        <v>0.9184600000000001</v>
       </c>
       <c r="H2">
-        <v>0.74483</v>
+        <v>0.74522</v>
       </c>
       <c r="I2">
-        <v>0.91313</v>
+        <v>0.91296</v>
       </c>
       <c r="J2">
-        <v>0.42665</v>
+        <v>0.42834</v>
       </c>
       <c r="K2">
-        <v>0.33035</v>
+        <v>0.33374</v>
       </c>
       <c r="L2">
-        <v>0.7091</v>
+        <v>0.70974</v>
       </c>
       <c r="M2">
-        <v>0.31635</v>
+        <v>0.31754</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10642,40 +10642,40 @@
         <v>218</v>
       </c>
       <c r="B3">
-        <v>0.26551</v>
+        <v>0.26467</v>
       </c>
       <c r="C3">
-        <v>0.22194</v>
+        <v>0.22143</v>
       </c>
       <c r="D3">
-        <v>0.33196</v>
+        <v>0.33059</v>
       </c>
       <c r="E3">
-        <v>0.07559</v>
+        <v>0.07547</v>
       </c>
       <c r="F3">
-        <v>0.38681</v>
+        <v>0.38628</v>
       </c>
       <c r="G3">
-        <v>0.01541</v>
+        <v>0.01558</v>
       </c>
       <c r="H3">
-        <v>0.10512</v>
+        <v>0.10479</v>
       </c>
       <c r="I3">
-        <v>0.0131</v>
+        <v>0.01307</v>
       </c>
       <c r="J3">
-        <v>0.37346</v>
+        <v>0.37313</v>
       </c>
       <c r="K3">
-        <v>0.56713</v>
+        <v>0.5638300000000001</v>
       </c>
       <c r="L3">
-        <v>0.07206</v>
+        <v>0.07185</v>
       </c>
       <c r="M3">
-        <v>0.59315</v>
+        <v>0.5918099999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -10683,40 +10683,40 @@
         <v>219</v>
       </c>
       <c r="B4">
-        <v>0.05256</v>
+        <v>0.05276</v>
       </c>
       <c r="C4">
-        <v>0.07764</v>
+        <v>0.07797999999999999</v>
       </c>
       <c r="D4">
-        <v>0.01431</v>
+        <v>0.01432</v>
       </c>
       <c r="E4">
-        <v>0.03333</v>
+        <v>0.03361</v>
       </c>
       <c r="F4">
-        <v>0.12851</v>
+        <v>0.12922</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0519</v>
+        <v>0.05187</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01572</v>
+        <v>0.01583</v>
       </c>
       <c r="K4">
-        <v>0.02698</v>
+        <v>0.02696</v>
       </c>
       <c r="L4">
-        <v>0.01087</v>
+        <v>0.01086</v>
       </c>
       <c r="M4">
-        <v>0.01348</v>
+        <v>0.01354</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -10724,40 +10724,40 @@
         <v>220</v>
       </c>
       <c r="B5">
-        <v>0.05207</v>
+        <v>0.0522</v>
       </c>
       <c r="C5">
-        <v>0.06521</v>
+        <v>0.06537999999999999</v>
       </c>
       <c r="D5">
-        <v>0.03203</v>
+        <v>0.03211</v>
       </c>
       <c r="E5">
-        <v>0.01527</v>
+        <v>0.01537</v>
       </c>
       <c r="F5">
-        <v>0.09912</v>
+        <v>0.09941999999999999</v>
       </c>
       <c r="G5">
-        <v>0.05744</v>
+        <v>0.05764</v>
       </c>
       <c r="H5">
-        <v>0.03272</v>
+        <v>0.03274</v>
       </c>
       <c r="I5">
-        <v>0.06533</v>
+        <v>0.06549000000000001</v>
       </c>
       <c r="J5">
-        <v>0.0033</v>
+        <v>0.00328</v>
       </c>
       <c r="K5">
-        <v>0.0507</v>
+        <v>0.05073</v>
       </c>
       <c r="L5">
-        <v>0.00391</v>
+        <v>0.00387</v>
       </c>
       <c r="M5">
-        <v>0.00481</v>
+        <v>0.00488</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -10765,13 +10765,13 @@
         <v>221</v>
       </c>
       <c r="B6">
-        <v>0.02198</v>
+        <v>0.0219</v>
       </c>
       <c r="C6">
-        <v>0.00139</v>
+        <v>0.00138</v>
       </c>
       <c r="D6">
-        <v>0.05338</v>
+        <v>0.05317</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -10783,22 +10783,22 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.00306</v>
+        <v>0.00305</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.17218</v>
+        <v>0.17124</v>
       </c>
       <c r="K6">
-        <v>0.01249</v>
+        <v>0.01247</v>
       </c>
       <c r="L6">
-        <v>0.11088</v>
+        <v>0.11071</v>
       </c>
       <c r="M6">
-        <v>0.05942</v>
+        <v>0.05932</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -10806,40 +10806,40 @@
         <v>222</v>
       </c>
       <c r="B7">
-        <v>0.01685</v>
+        <v>0.01684</v>
       </c>
       <c r="C7">
-        <v>0.01772</v>
+        <v>0.01773</v>
       </c>
       <c r="D7">
-        <v>0.01552</v>
+        <v>0.01548</v>
       </c>
       <c r="E7">
-        <v>0.0034</v>
+        <v>0.00339</v>
       </c>
       <c r="F7">
-        <v>0.02315</v>
+        <v>0.02317</v>
       </c>
       <c r="G7">
-        <v>0.00511</v>
+        <v>0.00514</v>
       </c>
       <c r="H7">
-        <v>0.02768</v>
+        <v>0.02767</v>
       </c>
       <c r="I7">
-        <v>0.00586</v>
+        <v>0.00589</v>
       </c>
       <c r="J7">
-        <v>0.00332</v>
+        <v>0.00328</v>
       </c>
       <c r="K7">
-        <v>0.009169999999999999</v>
+        <v>0.009050000000000001</v>
       </c>
       <c r="L7">
-        <v>0.05183</v>
+        <v>0.05179</v>
       </c>
       <c r="M7">
-        <v>0.00602</v>
+        <v>0.00603</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -10847,40 +10847,40 @@
         <v>223</v>
       </c>
       <c r="B8">
-        <v>0.00363</v>
+        <v>0.00362</v>
       </c>
       <c r="C8">
-        <v>0.00451</v>
+        <v>0.00452</v>
       </c>
       <c r="D8">
-        <v>0.00229</v>
+        <v>0.00224</v>
       </c>
       <c r="E8">
-        <v>0.02047</v>
+        <v>0.02055</v>
       </c>
       <c r="F8">
         <v>8.000000000000001E-05</v>
       </c>
       <c r="G8">
-        <v>0.00308</v>
+        <v>0.00306</v>
       </c>
       <c r="H8">
         <v>0.00159</v>
       </c>
       <c r="I8">
-        <v>0.00258</v>
+        <v>0.00259</v>
       </c>
       <c r="J8">
-        <v>0.00042</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.0003</v>
+        <v>0.00031</v>
       </c>
       <c r="L8">
-        <v>0.00725</v>
+        <v>0.00714</v>
       </c>
       <c r="M8">
-        <v>0.00104</v>
+        <v>0.00107</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -10891,7 +10891,7 @@
         <v>0.00192</v>
       </c>
       <c r="C9">
-        <v>0.00317</v>
+        <v>0.00318</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -10900,13 +10900,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.00062</v>
+        <v>0.00061</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.01533</v>
+        <v>0.01535</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -10929,40 +10929,40 @@
         <v>225</v>
       </c>
       <c r="B10">
-        <v>0.00187</v>
+        <v>0.00188</v>
       </c>
       <c r="C10">
-        <v>0.00244</v>
+        <v>0.00245</v>
       </c>
       <c r="D10">
-        <v>0.001</v>
+        <v>0.00101</v>
       </c>
       <c r="E10">
-        <v>0.00087</v>
+        <v>0.0009</v>
       </c>
       <c r="F10">
-        <v>0.0005999999999999999</v>
+        <v>0.00062</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.01063</v>
+        <v>0.01058</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.00337</v>
+        <v>0.00342</v>
       </c>
       <c r="K10">
-        <v>0.00043</v>
+        <v>0.00044</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.00296</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10970,13 +10970,13 @@
         <v>226</v>
       </c>
       <c r="B11">
-        <v>0.00155</v>
+        <v>0.00156</v>
       </c>
       <c r="C11">
         <v>0.00031</v>
       </c>
       <c r="D11">
-        <v>0.00344</v>
+        <v>0.00346</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -10988,22 +10988,22 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.00165</v>
+        <v>0.00164</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.00053</v>
+        <v>0.00055</v>
       </c>
       <c r="K11">
-        <v>0.00077</v>
+        <v>0.00079</v>
       </c>
       <c r="L11">
         <v>0.01452</v>
       </c>
       <c r="M11">
-        <v>0.00199</v>
+        <v>0.00202</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -11011,13 +11011,13 @@
         <v>227</v>
       </c>
       <c r="B12">
-        <v>0.00142</v>
+        <v>0.00141</v>
       </c>
       <c r="C12">
         <v>0.00053</v>
       </c>
       <c r="D12">
-        <v>0.00278</v>
+        <v>0.00276</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.00033</v>
+        <v>0.00035</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01435</v>
+        <v>0.01429</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -11058,10 +11058,10 @@
         <v>0.00087</v>
       </c>
       <c r="D13">
-        <v>0.0006400000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="E13">
-        <v>0.00195</v>
+        <v>0.00196</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -11070,19 +11070,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.00275</v>
+        <v>0.00276</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.00072</v>
+        <v>0.00067</v>
       </c>
       <c r="K13">
         <v>0.0014</v>
       </c>
       <c r="L13">
-        <v>0.00072</v>
+        <v>0.00069</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.00481</v>
+        <v>0.0048</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -11134,13 +11134,13 @@
         <v>230</v>
       </c>
       <c r="B15">
-        <v>0.00029</v>
+        <v>0.0003</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.00074</v>
+        <v>0.00075</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -11164,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.00384</v>
+        <v>0.00388</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -11216,7 +11216,7 @@
         <v>232</v>
       </c>
       <c r="B17">
-        <v>0.00024</v>
+        <v>0.00023</v>
       </c>
       <c r="C17">
         <v>0.00036</v>
@@ -11228,7 +11228,7 @@
         <v>0.00058</v>
       </c>
       <c r="F17">
-        <v>0.00032</v>
+        <v>0.00031</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -11275,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.00175</v>
+        <v>0.00174</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.00016</v>
+        <v>0.00017</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -11298,7 +11298,7 @@
         <v>234</v>
       </c>
       <c r="B19">
-        <v>0.00016</v>
+        <v>0.00015</v>
       </c>
       <c r="C19">
         <v>0.00026</v>
@@ -11310,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00054</v>
+        <v>0.00053</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.00013</v>
+        <v>0.00014</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.00077</v>
+        <v>0.00078</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -11386,7 +11386,7 @@
         <v>2E-05</v>
       </c>
       <c r="D21">
-        <v>9.000000000000001E-05</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00012</v>
+        <v>0.00011</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.00033</v>
+        <v>0.00026</v>
       </c>
       <c r="K21">
         <v>0.00017</v>
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.00021</v>
+        <v>0.00019</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="G24">
         <v>0</v>
